--- a/IndexEnhancement/模拟盘PnL跟踪 - 100w.xlsx
+++ b/IndexEnhancement/模拟盘PnL跟踪 - 100w.xlsx
@@ -1302,7 +1302,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KO5"/>
+  <dimension ref="A1:KO6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="KO4" sqref="B4:KO4"/>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="5" spans="1:301">
       <c r="A5" s="5" t="n">
-        <v>43431.62083333333</v>
+        <v>43431.62083333332</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -4956,9 +4956,6 @@
       <c r="R5" t="n">
         <v>0</v>
       </c>
-      <c r="S5" t="n">
-        <v/>
-      </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
@@ -5100,9 +5097,6 @@
       <c r="BN5" t="n">
         <v>0</v>
       </c>
-      <c r="BO5" t="n">
-        <v/>
-      </c>
       <c r="BP5" t="n">
         <v>0</v>
       </c>
@@ -5114,12 +5108,6 @@
       </c>
       <c r="BS5" t="n">
         <v>0</v>
-      </c>
-      <c r="BT5" t="n">
-        <v/>
-      </c>
-      <c r="BU5" t="n">
-        <v/>
       </c>
       <c r="BV5" t="n">
         <v>0</v>
@@ -5340,9 +5328,6 @@
       <c r="EP5" t="n">
         <v>0</v>
       </c>
-      <c r="EQ5" t="n">
-        <v/>
-      </c>
       <c r="ER5" t="n">
         <v>0</v>
       </c>
@@ -5803,6 +5788,911 @@
         <v>0</v>
       </c>
       <c r="KO5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:301">
+      <c r="A6" s="5" t="n">
+        <v>43432.62083333333</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" t="n">
+        <v>200</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>300</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>100</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>200</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="n">
+        <v>100</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>400</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>200</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>300</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>300</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>800</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>400</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>100</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>200</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>200</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>200</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO6" t="n">
+        <v/>
+      </c>
+      <c r="BP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT6" t="n">
+        <v/>
+      </c>
+      <c r="BU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>300</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>100</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>100</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>300</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>100</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>200</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>100</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>100</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>100</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>100</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>100</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS6" t="n">
+        <v>100</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB6" t="n">
+        <v>100</v>
+      </c>
+      <c r="EC6" t="n">
+        <v>100</v>
+      </c>
+      <c r="ED6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE6" t="n">
+        <v>200</v>
+      </c>
+      <c r="EF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ6" t="n">
+        <v>100</v>
+      </c>
+      <c r="EK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL6" t="n">
+        <v>200</v>
+      </c>
+      <c r="EM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO6" t="n">
+        <v>100</v>
+      </c>
+      <c r="EP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ6" t="n">
+        <v/>
+      </c>
+      <c r="ER6" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES6" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET6" t="n">
+        <v>100</v>
+      </c>
+      <c r="EU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY6" t="n">
+        <v>500</v>
+      </c>
+      <c r="EZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG6" t="n">
+        <v>100</v>
+      </c>
+      <c r="FH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL6" t="n">
+        <v>100</v>
+      </c>
+      <c r="FM6" t="n">
+        <v>100</v>
+      </c>
+      <c r="FN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO6" t="n">
+        <v>100</v>
+      </c>
+      <c r="FP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU6" t="n">
+        <v>400</v>
+      </c>
+      <c r="FV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC6" t="n">
+        <v>200</v>
+      </c>
+      <c r="GD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK6" t="n">
+        <v>100</v>
+      </c>
+      <c r="GL6" t="n">
+        <v>300</v>
+      </c>
+      <c r="GM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT6" t="n">
+        <v>300</v>
+      </c>
+      <c r="GU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY6" t="n">
+        <v>200</v>
+      </c>
+      <c r="GZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD6" t="n">
+        <v>100</v>
+      </c>
+      <c r="HE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM6" t="n">
+        <v>600</v>
+      </c>
+      <c r="HN6" t="n">
+        <v>100</v>
+      </c>
+      <c r="HO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR6" t="n">
+        <v>200</v>
+      </c>
+      <c r="HS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV6" t="n">
+        <v>300</v>
+      </c>
+      <c r="HW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ6" t="n">
+        <v>100</v>
+      </c>
+      <c r="IA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID6" t="n">
+        <v>100</v>
+      </c>
+      <c r="IE6" t="n">
+        <v>100</v>
+      </c>
+      <c r="IF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="II6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN6" t="n">
+        <v>100</v>
+      </c>
+      <c r="IO6" t="n">
+        <v>300</v>
+      </c>
+      <c r="IP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR6" t="n">
+        <v>100</v>
+      </c>
+      <c r="IS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU6" t="n">
+        <v>200</v>
+      </c>
+      <c r="IV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC6" t="n">
+        <v>400</v>
+      </c>
+      <c r="JD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP6" t="n">
+        <v>200</v>
+      </c>
+      <c r="JQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR6" t="n">
+        <v>200</v>
+      </c>
+      <c r="JS6" t="n">
+        <v>200</v>
+      </c>
+      <c r="JT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW6" t="n">
+        <v>100</v>
+      </c>
+      <c r="JX6" t="n">
+        <v>400</v>
+      </c>
+      <c r="JY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD6" t="n">
+        <v>100</v>
+      </c>
+      <c r="KE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF6" t="n">
+        <v>100</v>
+      </c>
+      <c r="KG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/IndexEnhancement/模拟盘PnL跟踪 - 100w.xlsx
+++ b/IndexEnhancement/模拟盘PnL跟踪 - 100w.xlsx
@@ -1302,7 +1302,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KO6"/>
+  <dimension ref="A1:KO7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="KO4" sqref="B4:KO4"/>
@@ -5793,7 +5793,7 @@
     </row>
     <row r="6" spans="1:301">
       <c r="A6" s="5" t="n">
-        <v>43432.62083333333</v>
+        <v>43432.62083333332</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -5846,9 +5846,6 @@
       <c r="R6" t="n">
         <v>0</v>
       </c>
-      <c r="S6" t="n">
-        <v/>
-      </c>
       <c r="T6" t="n">
         <v>100</v>
       </c>
@@ -5990,9 +5987,6 @@
       <c r="BN6" t="n">
         <v>0</v>
       </c>
-      <c r="BO6" t="n">
-        <v/>
-      </c>
       <c r="BP6" t="n">
         <v>0</v>
       </c>
@@ -6004,9 +5998,6 @@
       </c>
       <c r="BS6" t="n">
         <v>0</v>
-      </c>
-      <c r="BT6" t="n">
-        <v/>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
@@ -6230,9 +6221,6 @@
       <c r="EP6" t="n">
         <v>0</v>
       </c>
-      <c r="EQ6" t="n">
-        <v/>
-      </c>
       <c r="ER6" t="n">
         <v>0</v>
       </c>
@@ -6693,6 +6681,911 @@
         <v>0</v>
       </c>
       <c r="KO6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:301">
+      <c r="A7" s="5" t="n">
+        <v>43433.62083333333</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>100</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>300</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>300</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>100</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>100</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO7" t="n">
+        <v/>
+      </c>
+      <c r="BP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT7" t="n">
+        <v/>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>100</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>100</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>100</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>100</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX7" t="n">
+        <v>100</v>
+      </c>
+      <c r="DY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB7" t="n">
+        <v>100</v>
+      </c>
+      <c r="EC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ7" t="n">
+        <v/>
+      </c>
+      <c r="ER7" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES7" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM7" t="n">
+        <v>100</v>
+      </c>
+      <c r="FN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU7" t="n">
+        <v>300</v>
+      </c>
+      <c r="FV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX7" t="n">
+        <v>200</v>
+      </c>
+      <c r="FY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE7" t="n">
+        <v>100</v>
+      </c>
+      <c r="GF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL7" t="n">
+        <v>100</v>
+      </c>
+      <c r="GM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT7" t="n">
+        <v>100</v>
+      </c>
+      <c r="GU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM7" t="n">
+        <v>400</v>
+      </c>
+      <c r="HN7" t="n">
+        <v>100</v>
+      </c>
+      <c r="HO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR7" t="n">
+        <v>100</v>
+      </c>
+      <c r="HS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ7" t="n">
+        <v>100</v>
+      </c>
+      <c r="IA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="II7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY7" t="n">
+        <v>100</v>
+      </c>
+      <c r="IZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC7" t="n">
+        <v>400</v>
+      </c>
+      <c r="JD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX7" t="n">
+        <v>100</v>
+      </c>
+      <c r="JY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO7" t="n">
         <v>0</v>
       </c>
     </row>

--- a/IndexEnhancement/模拟盘PnL跟踪 - 100w.xlsx
+++ b/IndexEnhancement/模拟盘PnL跟踪 - 100w.xlsx
@@ -1302,7 +1302,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KO7"/>
+  <dimension ref="A1:KO8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="KO4" sqref="B4:KO4"/>
@@ -6686,7 +6686,7 @@
     </row>
     <row r="7" spans="1:301">
       <c r="A7" s="5" t="n">
-        <v>43433.62083333333</v>
+        <v>43433.62083333332</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -6738,9 +6738,6 @@
       </c>
       <c r="R7" t="n">
         <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v/>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -6883,9 +6880,6 @@
       <c r="BN7" t="n">
         <v>0</v>
       </c>
-      <c r="BO7" t="n">
-        <v/>
-      </c>
       <c r="BP7" t="n">
         <v>0</v>
       </c>
@@ -6898,9 +6892,6 @@
       <c r="BS7" t="n">
         <v>0</v>
       </c>
-      <c r="BT7" t="n">
-        <v/>
-      </c>
       <c r="BU7" t="n">
         <v>0</v>
       </c>
@@ -7122,9 +7113,6 @@
       </c>
       <c r="EP7" t="n">
         <v>0</v>
-      </c>
-      <c r="EQ7" t="n">
-        <v/>
       </c>
       <c r="ER7" t="n">
         <v>0</v>
@@ -7586,6 +7574,911 @@
         <v>0</v>
       </c>
       <c r="KO7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:301">
+      <c r="A8" s="5" t="n">
+        <v>43434.62083333333</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>100</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>200</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>500</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>400</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>100</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>100</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>100</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO8" t="n">
+        <v/>
+      </c>
+      <c r="BP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>100</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>100</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>100</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>200</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>100</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>200</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX8" t="n">
+        <v>200</v>
+      </c>
+      <c r="DY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB8" t="n">
+        <v>100</v>
+      </c>
+      <c r="EC8" t="n">
+        <v>100</v>
+      </c>
+      <c r="ED8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE8" t="n">
+        <v>100</v>
+      </c>
+      <c r="EF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL8" t="n">
+        <v>100</v>
+      </c>
+      <c r="EM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ8" t="n">
+        <v/>
+      </c>
+      <c r="ER8" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES8" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI8" t="n">
+        <v>100</v>
+      </c>
+      <c r="FJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL8" t="n">
+        <v>100</v>
+      </c>
+      <c r="FM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU8" t="n">
+        <v>400</v>
+      </c>
+      <c r="FV8" t="n">
+        <v>100</v>
+      </c>
+      <c r="FW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX8" t="n">
+        <v>300</v>
+      </c>
+      <c r="FY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE8" t="n">
+        <v>100</v>
+      </c>
+      <c r="GF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX8" t="n">
+        <v>400</v>
+      </c>
+      <c r="GY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ8" t="n">
+        <v>100</v>
+      </c>
+      <c r="HA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD8" t="n">
+        <v>100</v>
+      </c>
+      <c r="HE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM8" t="n">
+        <v>100</v>
+      </c>
+      <c r="HN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR8" t="n">
+        <v>200</v>
+      </c>
+      <c r="HS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX8" t="n">
+        <v>100</v>
+      </c>
+      <c r="HY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ8" t="n">
+        <v>100</v>
+      </c>
+      <c r="IA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC8" t="n">
+        <v>100</v>
+      </c>
+      <c r="ID8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE8" t="n">
+        <v>100</v>
+      </c>
+      <c r="IF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="II8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO8" t="n">
+        <v>200</v>
+      </c>
+      <c r="IP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY8" t="n">
+        <v>200</v>
+      </c>
+      <c r="IZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC8" t="n">
+        <v>700</v>
+      </c>
+      <c r="JD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH8" t="n">
+        <v>200</v>
+      </c>
+      <c r="JI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR8" t="n">
+        <v>100</v>
+      </c>
+      <c r="JS8" t="n">
+        <v>100</v>
+      </c>
+      <c r="JT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX8" t="n">
+        <v>400</v>
+      </c>
+      <c r="JY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD8" t="n">
+        <v>100</v>
+      </c>
+      <c r="KE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO8" t="n">
         <v>0</v>
       </c>
     </row>

--- a/IndexEnhancement/模拟盘PnL跟踪 - 100w.xlsx
+++ b/IndexEnhancement/模拟盘PnL跟踪 - 100w.xlsx
@@ -1302,7 +1302,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KO8"/>
+  <dimension ref="A1:KO9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="KO4" sqref="B4:KO4"/>
@@ -7579,7 +7579,7 @@
     </row>
     <row r="8" spans="1:301">
       <c r="A8" s="5" t="n">
-        <v>43434.62083333333</v>
+        <v>43434.62083333332</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -7631,9 +7631,6 @@
       </c>
       <c r="R8" t="n">
         <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v/>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -7776,9 +7773,6 @@
       <c r="BN8" t="n">
         <v>0</v>
       </c>
-      <c r="BO8" t="n">
-        <v/>
-      </c>
       <c r="BP8" t="n">
         <v>0</v>
       </c>
@@ -8015,9 +8009,6 @@
       </c>
       <c r="EP8" t="n">
         <v>0</v>
-      </c>
-      <c r="EQ8" t="n">
-        <v/>
       </c>
       <c r="ER8" t="n">
         <v>0</v>
@@ -8480,6 +8471,911 @@
       </c>
       <c r="KO8" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:301">
+      <c r="A9" s="5" t="n">
+        <v>43437.62083333333</v>
+      </c>
+      <c r="B9" t="n">
+        <v>200</v>
+      </c>
+      <c r="C9" t="n">
+        <v>200</v>
+      </c>
+      <c r="D9" t="n">
+        <v>300</v>
+      </c>
+      <c r="E9" t="n">
+        <v>300</v>
+      </c>
+      <c r="F9" t="n">
+        <v>400</v>
+      </c>
+      <c r="G9" t="n">
+        <v>500</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1800</v>
+      </c>
+      <c r="I9" t="n">
+        <v>600</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+      <c r="K9" t="n">
+        <v>700</v>
+      </c>
+      <c r="L9" t="n">
+        <v>300</v>
+      </c>
+      <c r="M9" t="n">
+        <v>300</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>200</v>
+      </c>
+      <c r="P9" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>400</v>
+      </c>
+      <c r="R9" t="n">
+        <v>100</v>
+      </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="n">
+        <v>700</v>
+      </c>
+      <c r="U9" t="n">
+        <v>200</v>
+      </c>
+      <c r="V9" t="n">
+        <v>200</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>600</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>900</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>300</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>600</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>1900</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>300</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>200</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>200</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>200</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>300</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>700</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>300</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>500</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>100</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>300</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>500</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>200</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>400</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>500</v>
+      </c>
+      <c r="BO9" t="n">
+        <v/>
+      </c>
+      <c r="BP9" t="n">
+        <v>200</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>100</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>1400</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>100</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>300</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>200</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>300</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>800</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>200</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>500</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>600</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>100</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>100</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>300</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>100</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>500</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>400</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>900</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>200</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>500</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>400</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>400</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>200</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>200</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>300</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>300</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>100</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>200</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>100</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>100</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>200</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>300</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>300</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>700</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>400</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>100</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>200</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>400</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>800</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>100</v>
+      </c>
+      <c r="DW9" t="n">
+        <v>300</v>
+      </c>
+      <c r="DX9" t="n">
+        <v>1300</v>
+      </c>
+      <c r="DY9" t="n">
+        <v>200</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>900</v>
+      </c>
+      <c r="EA9" t="n">
+        <v>200</v>
+      </c>
+      <c r="EB9" t="n">
+        <v>200</v>
+      </c>
+      <c r="EC9" t="n">
+        <v>200</v>
+      </c>
+      <c r="ED9" t="n">
+        <v>400</v>
+      </c>
+      <c r="EE9" t="n">
+        <v>500</v>
+      </c>
+      <c r="EF9" t="n">
+        <v>300</v>
+      </c>
+      <c r="EG9" t="n">
+        <v>100</v>
+      </c>
+      <c r="EH9" t="n">
+        <v>100</v>
+      </c>
+      <c r="EI9" t="n">
+        <v>500</v>
+      </c>
+      <c r="EJ9" t="n">
+        <v>400</v>
+      </c>
+      <c r="EK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL9" t="n">
+        <v>500</v>
+      </c>
+      <c r="EM9" t="n">
+        <v>100</v>
+      </c>
+      <c r="EN9" t="n">
+        <v>900</v>
+      </c>
+      <c r="EO9" t="n">
+        <v>300</v>
+      </c>
+      <c r="EP9" t="n">
+        <v>100</v>
+      </c>
+      <c r="EQ9" t="n">
+        <v/>
+      </c>
+      <c r="ER9" t="n">
+        <v>200</v>
+      </c>
+      <c r="ES9" t="n">
+        <v>400</v>
+      </c>
+      <c r="ET9" t="n">
+        <v>700</v>
+      </c>
+      <c r="EU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV9" t="n">
+        <v>300</v>
+      </c>
+      <c r="EW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY9" t="n">
+        <v>1100</v>
+      </c>
+      <c r="EZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB9" t="n">
+        <v>100</v>
+      </c>
+      <c r="FC9" t="n">
+        <v>900</v>
+      </c>
+      <c r="FD9" t="n">
+        <v>100</v>
+      </c>
+      <c r="FE9" t="n">
+        <v>200</v>
+      </c>
+      <c r="FF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG9" t="n">
+        <v>200</v>
+      </c>
+      <c r="FH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI9" t="n">
+        <v>600</v>
+      </c>
+      <c r="FJ9" t="n">
+        <v>300</v>
+      </c>
+      <c r="FK9" t="n">
+        <v>100</v>
+      </c>
+      <c r="FL9" t="n">
+        <v>400</v>
+      </c>
+      <c r="FM9" t="n">
+        <v>300</v>
+      </c>
+      <c r="FN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO9" t="n">
+        <v>500</v>
+      </c>
+      <c r="FP9" t="n">
+        <v>600</v>
+      </c>
+      <c r="FQ9" t="n">
+        <v>800</v>
+      </c>
+      <c r="FR9" t="n">
+        <v>200</v>
+      </c>
+      <c r="FS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT9" t="n">
+        <v>100</v>
+      </c>
+      <c r="FU9" t="n">
+        <v>1400</v>
+      </c>
+      <c r="FV9" t="n">
+        <v>300</v>
+      </c>
+      <c r="FW9" t="n">
+        <v>100</v>
+      </c>
+      <c r="FX9" t="n">
+        <v>1100</v>
+      </c>
+      <c r="FY9" t="n">
+        <v>100</v>
+      </c>
+      <c r="FZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC9" t="n">
+        <v>700</v>
+      </c>
+      <c r="GD9" t="n">
+        <v>100</v>
+      </c>
+      <c r="GE9" t="n">
+        <v>300</v>
+      </c>
+      <c r="GF9" t="n">
+        <v>200</v>
+      </c>
+      <c r="GG9" t="n">
+        <v>100</v>
+      </c>
+      <c r="GH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL9" t="n">
+        <v>300</v>
+      </c>
+      <c r="GM9" t="n">
+        <v>100</v>
+      </c>
+      <c r="GN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO9" t="n">
+        <v>300</v>
+      </c>
+      <c r="GP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR9" t="n">
+        <v>600</v>
+      </c>
+      <c r="GS9" t="n">
+        <v>200</v>
+      </c>
+      <c r="GT9" t="n">
+        <v>1300</v>
+      </c>
+      <c r="GU9" t="n">
+        <v>200</v>
+      </c>
+      <c r="GV9" t="n">
+        <v>100</v>
+      </c>
+      <c r="GW9" t="n">
+        <v>100</v>
+      </c>
+      <c r="GX9" t="n">
+        <v>2100</v>
+      </c>
+      <c r="GY9" t="n">
+        <v>500</v>
+      </c>
+      <c r="GZ9" t="n">
+        <v>300</v>
+      </c>
+      <c r="HA9" t="n">
+        <v>100</v>
+      </c>
+      <c r="HB9" t="n">
+        <v>200</v>
+      </c>
+      <c r="HC9" t="n">
+        <v>400</v>
+      </c>
+      <c r="HD9" t="n">
+        <v>500</v>
+      </c>
+      <c r="HE9" t="n">
+        <v>400</v>
+      </c>
+      <c r="HF9" t="n">
+        <v>300</v>
+      </c>
+      <c r="HG9" t="n">
+        <v>200</v>
+      </c>
+      <c r="HH9" t="n">
+        <v>100</v>
+      </c>
+      <c r="HI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM9" t="n">
+        <v>1400</v>
+      </c>
+      <c r="HN9" t="n">
+        <v>200</v>
+      </c>
+      <c r="HO9" t="n">
+        <v>300</v>
+      </c>
+      <c r="HP9" t="n">
+        <v>100</v>
+      </c>
+      <c r="HQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR9" t="n">
+        <v>600</v>
+      </c>
+      <c r="HS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT9" t="n">
+        <v>100</v>
+      </c>
+      <c r="HU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV9" t="n">
+        <v>200</v>
+      </c>
+      <c r="HW9" t="n">
+        <v>100</v>
+      </c>
+      <c r="HX9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="HY9" t="n">
+        <v>300</v>
+      </c>
+      <c r="HZ9" t="n">
+        <v>100</v>
+      </c>
+      <c r="IA9" t="n">
+        <v>300</v>
+      </c>
+      <c r="IB9" t="n">
+        <v>500</v>
+      </c>
+      <c r="IC9" t="n">
+        <v>500</v>
+      </c>
+      <c r="ID9" t="n">
+        <v>100</v>
+      </c>
+      <c r="IE9" t="n">
+        <v>500</v>
+      </c>
+      <c r="IF9" t="n">
+        <v>100</v>
+      </c>
+      <c r="IG9" t="n">
+        <v>200</v>
+      </c>
+      <c r="IH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="II9" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="IO9" t="n">
+        <v>1300</v>
+      </c>
+      <c r="IP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR9" t="n">
+        <v>600</v>
+      </c>
+      <c r="IS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT9" t="n">
+        <v>200</v>
+      </c>
+      <c r="IU9" t="n">
+        <v>500</v>
+      </c>
+      <c r="IV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX9" t="n">
+        <v>200</v>
+      </c>
+      <c r="IY9" t="n">
+        <v>700</v>
+      </c>
+      <c r="IZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA9" t="n">
+        <v>100</v>
+      </c>
+      <c r="JB9" t="n">
+        <v>100</v>
+      </c>
+      <c r="JC9" t="n">
+        <v>2200</v>
+      </c>
+      <c r="JD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE9" t="n">
+        <v>400</v>
+      </c>
+      <c r="JF9" t="n">
+        <v>500</v>
+      </c>
+      <c r="JG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="JI9" t="n">
+        <v>200</v>
+      </c>
+      <c r="JJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="JM9" t="n">
+        <v>300</v>
+      </c>
+      <c r="JN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP9" t="n">
+        <v>1300</v>
+      </c>
+      <c r="JQ9" t="n">
+        <v>200</v>
+      </c>
+      <c r="JR9" t="n">
+        <v>600</v>
+      </c>
+      <c r="JS9" t="n">
+        <v>400</v>
+      </c>
+      <c r="JT9" t="n">
+        <v>100</v>
+      </c>
+      <c r="JU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV9" t="n">
+        <v>200</v>
+      </c>
+      <c r="JW9" t="n">
+        <v>400</v>
+      </c>
+      <c r="JX9" t="n">
+        <v>2100</v>
+      </c>
+      <c r="JY9" t="n">
+        <v>200</v>
+      </c>
+      <c r="JZ9" t="n">
+        <v>100</v>
+      </c>
+      <c r="KA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC9" t="n">
+        <v>1100</v>
+      </c>
+      <c r="KD9" t="n">
+        <v>1400</v>
+      </c>
+      <c r="KE9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="KF9" t="n">
+        <v>300</v>
+      </c>
+      <c r="KG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH9" t="n">
+        <v>300</v>
+      </c>
+      <c r="KI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK9" t="n">
+        <v>100</v>
+      </c>
+      <c r="KL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN9" t="n">
+        <v>100</v>
+      </c>
+      <c r="KO9" t="n">
+        <v>700</v>
       </c>
     </row>
   </sheetData>

--- a/IndexEnhancement/模拟盘PnL跟踪 - 100w.xlsx
+++ b/IndexEnhancement/模拟盘PnL跟踪 - 100w.xlsx
@@ -1302,7 +1302,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KO9"/>
+  <dimension ref="A1:KO10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="KO4" sqref="B4:KO4"/>
@@ -8475,7 +8475,7 @@
     </row>
     <row r="9" spans="1:301">
       <c r="A9" s="5" t="n">
-        <v>43437.62083333333</v>
+        <v>43437.62083333332</v>
       </c>
       <c r="B9" t="n">
         <v>200</v>
@@ -8528,9 +8528,6 @@
       <c r="R9" t="n">
         <v>100</v>
       </c>
-      <c r="S9" t="n">
-        <v/>
-      </c>
       <c r="T9" t="n">
         <v>700</v>
       </c>
@@ -8672,9 +8669,6 @@
       <c r="BN9" t="n">
         <v>500</v>
       </c>
-      <c r="BO9" t="n">
-        <v/>
-      </c>
       <c r="BP9" t="n">
         <v>200</v>
       </c>
@@ -8912,9 +8906,6 @@
       <c r="EP9" t="n">
         <v>100</v>
       </c>
-      <c r="EQ9" t="n">
-        <v/>
-      </c>
       <c r="ER9" t="n">
         <v>200</v>
       </c>
@@ -9376,6 +9367,911 @@
       </c>
       <c r="KO9" t="n">
         <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:301">
+      <c r="A10" s="5" t="n">
+        <v>43438.62083333333</v>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>200</v>
+      </c>
+      <c r="E10" t="n">
+        <v>200</v>
+      </c>
+      <c r="F10" t="n">
+        <v>200</v>
+      </c>
+      <c r="G10" t="n">
+        <v>700</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>700</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>800</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>500</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>200</v>
+      </c>
+      <c r="P10" t="n">
+        <v>900</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>400</v>
+      </c>
+      <c r="R10" t="n">
+        <v>100</v>
+      </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="n">
+        <v>800</v>
+      </c>
+      <c r="U10" t="n">
+        <v>200</v>
+      </c>
+      <c r="V10" t="n">
+        <v>200</v>
+      </c>
+      <c r="W10" t="n">
+        <v>200</v>
+      </c>
+      <c r="X10" t="n">
+        <v>500</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>600</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>400</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>600</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1700</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1500</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>200</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>200</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>400</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>700</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>500</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>100</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>500</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>100</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>300</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>500</v>
+      </c>
+      <c r="BO10" t="n">
+        <v/>
+      </c>
+      <c r="BP10" t="n">
+        <v>200</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>100</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>900</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>300</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>200</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>100</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>200</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>400</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>200</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>300</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>700</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>100</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>200</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>100</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>300</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>500</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>100</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>500</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>300</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>500</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>400</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>600</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>200</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>200</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>300</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>200</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>300</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>100</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>300</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>100</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>200</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>100</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>100</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>100</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>800</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>1300</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>100</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>1100</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>100</v>
+      </c>
+      <c r="DR10" t="n">
+        <v>500</v>
+      </c>
+      <c r="DS10" t="n">
+        <v>700</v>
+      </c>
+      <c r="DT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU10" t="n">
+        <v>100</v>
+      </c>
+      <c r="DV10" t="n">
+        <v>400</v>
+      </c>
+      <c r="DW10" t="n">
+        <v>200</v>
+      </c>
+      <c r="DX10" t="n">
+        <v>1500</v>
+      </c>
+      <c r="DY10" t="n">
+        <v>300</v>
+      </c>
+      <c r="DZ10" t="n">
+        <v>700</v>
+      </c>
+      <c r="EA10" t="n">
+        <v>200</v>
+      </c>
+      <c r="EB10" t="n">
+        <v>100</v>
+      </c>
+      <c r="EC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED10" t="n">
+        <v>400</v>
+      </c>
+      <c r="EE10" t="n">
+        <v>500</v>
+      </c>
+      <c r="EF10" t="n">
+        <v>300</v>
+      </c>
+      <c r="EG10" t="n">
+        <v>400</v>
+      </c>
+      <c r="EH10" t="n">
+        <v>100</v>
+      </c>
+      <c r="EI10" t="n">
+        <v>500</v>
+      </c>
+      <c r="EJ10" t="n">
+        <v>400</v>
+      </c>
+      <c r="EK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL10" t="n">
+        <v>500</v>
+      </c>
+      <c r="EM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN10" t="n">
+        <v>1200</v>
+      </c>
+      <c r="EO10" t="n">
+        <v>300</v>
+      </c>
+      <c r="EP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ10" t="n">
+        <v/>
+      </c>
+      <c r="ER10" t="n">
+        <v>200</v>
+      </c>
+      <c r="ES10" t="n">
+        <v>400</v>
+      </c>
+      <c r="ET10" t="n">
+        <v>800</v>
+      </c>
+      <c r="EU10" t="n">
+        <v>100</v>
+      </c>
+      <c r="EV10" t="n">
+        <v>300</v>
+      </c>
+      <c r="EW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY10" t="n">
+        <v>1700</v>
+      </c>
+      <c r="EZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB10" t="n">
+        <v>100</v>
+      </c>
+      <c r="FC10" t="n">
+        <v>400</v>
+      </c>
+      <c r="FD10" t="n">
+        <v>300</v>
+      </c>
+      <c r="FE10" t="n">
+        <v>200</v>
+      </c>
+      <c r="FF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG10" t="n">
+        <v>200</v>
+      </c>
+      <c r="FH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI10" t="n">
+        <v>600</v>
+      </c>
+      <c r="FJ10" t="n">
+        <v>100</v>
+      </c>
+      <c r="FK10" t="n">
+        <v>300</v>
+      </c>
+      <c r="FL10" t="n">
+        <v>200</v>
+      </c>
+      <c r="FM10" t="n">
+        <v>300</v>
+      </c>
+      <c r="FN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP10" t="n">
+        <v>500</v>
+      </c>
+      <c r="FQ10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="FR10" t="n">
+        <v>300</v>
+      </c>
+      <c r="FS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT10" t="n">
+        <v>100</v>
+      </c>
+      <c r="FU10" t="n">
+        <v>1100</v>
+      </c>
+      <c r="FV10" t="n">
+        <v>200</v>
+      </c>
+      <c r="FW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX10" t="n">
+        <v>1300</v>
+      </c>
+      <c r="FY10" t="n">
+        <v>100</v>
+      </c>
+      <c r="FZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC10" t="n">
+        <v>700</v>
+      </c>
+      <c r="GD10" t="n">
+        <v>100</v>
+      </c>
+      <c r="GE10" t="n">
+        <v>300</v>
+      </c>
+      <c r="GF10" t="n">
+        <v>100</v>
+      </c>
+      <c r="GG10" t="n">
+        <v>100</v>
+      </c>
+      <c r="GH10" t="n">
+        <v>400</v>
+      </c>
+      <c r="GI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL10" t="n">
+        <v>400</v>
+      </c>
+      <c r="GM10" t="n">
+        <v>100</v>
+      </c>
+      <c r="GN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO10" t="n">
+        <v>400</v>
+      </c>
+      <c r="GP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR10" t="n">
+        <v>500</v>
+      </c>
+      <c r="GS10" t="n">
+        <v>200</v>
+      </c>
+      <c r="GT10" t="n">
+        <v>1100</v>
+      </c>
+      <c r="GU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV10" t="n">
+        <v>200</v>
+      </c>
+      <c r="GW10" t="n">
+        <v>300</v>
+      </c>
+      <c r="GX10" t="n">
+        <v>2600</v>
+      </c>
+      <c r="GY10" t="n">
+        <v>400</v>
+      </c>
+      <c r="GZ10" t="n">
+        <v>300</v>
+      </c>
+      <c r="HA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB10" t="n">
+        <v>300</v>
+      </c>
+      <c r="HC10" t="n">
+        <v>500</v>
+      </c>
+      <c r="HD10" t="n">
+        <v>600</v>
+      </c>
+      <c r="HE10" t="n">
+        <v>700</v>
+      </c>
+      <c r="HF10" t="n">
+        <v>200</v>
+      </c>
+      <c r="HG10" t="n">
+        <v>100</v>
+      </c>
+      <c r="HH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ10" t="n">
+        <v>200</v>
+      </c>
+      <c r="HK10" t="n">
+        <v>100</v>
+      </c>
+      <c r="HL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM10" t="n">
+        <v>1100</v>
+      </c>
+      <c r="HN10" t="n">
+        <v>100</v>
+      </c>
+      <c r="HO10" t="n">
+        <v>300</v>
+      </c>
+      <c r="HP10" t="n">
+        <v>200</v>
+      </c>
+      <c r="HQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR10" t="n">
+        <v>300</v>
+      </c>
+      <c r="HS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT10" t="n">
+        <v>200</v>
+      </c>
+      <c r="HU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV10" t="n">
+        <v>400</v>
+      </c>
+      <c r="HW10" t="n">
+        <v>300</v>
+      </c>
+      <c r="HX10" t="n">
+        <v>1200</v>
+      </c>
+      <c r="HY10" t="n">
+        <v>500</v>
+      </c>
+      <c r="HZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA10" t="n">
+        <v>400</v>
+      </c>
+      <c r="IB10" t="n">
+        <v>800</v>
+      </c>
+      <c r="IC10" t="n">
+        <v>400</v>
+      </c>
+      <c r="ID10" t="n">
+        <v>100</v>
+      </c>
+      <c r="IE10" t="n">
+        <v>500</v>
+      </c>
+      <c r="IF10" t="n">
+        <v>400</v>
+      </c>
+      <c r="IG10" t="n">
+        <v>300</v>
+      </c>
+      <c r="IH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="II10" t="n">
+        <v>200</v>
+      </c>
+      <c r="IJ10" t="n">
+        <v>100</v>
+      </c>
+      <c r="IK10" t="n">
+        <v>100</v>
+      </c>
+      <c r="IL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN10" t="n">
+        <v>1100</v>
+      </c>
+      <c r="IO10" t="n">
+        <v>1200</v>
+      </c>
+      <c r="IP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR10" t="n">
+        <v>700</v>
+      </c>
+      <c r="IS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT10" t="n">
+        <v>300</v>
+      </c>
+      <c r="IU10" t="n">
+        <v>500</v>
+      </c>
+      <c r="IV10" t="n">
+        <v>100</v>
+      </c>
+      <c r="IW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX10" t="n">
+        <v>200</v>
+      </c>
+      <c r="IY10" t="n">
+        <v>700</v>
+      </c>
+      <c r="IZ10" t="n">
+        <v>300</v>
+      </c>
+      <c r="JA10" t="n">
+        <v>100</v>
+      </c>
+      <c r="JB10" t="n">
+        <v>200</v>
+      </c>
+      <c r="JC10" t="n">
+        <v>2500</v>
+      </c>
+      <c r="JD10" t="n">
+        <v>700</v>
+      </c>
+      <c r="JE10" t="n">
+        <v>500</v>
+      </c>
+      <c r="JF10" t="n">
+        <v>700</v>
+      </c>
+      <c r="JG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="JI10" t="n">
+        <v>200</v>
+      </c>
+      <c r="JJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK10" t="n">
+        <v>100</v>
+      </c>
+      <c r="JL10" t="n">
+        <v>1200</v>
+      </c>
+      <c r="JM10" t="n">
+        <v>200</v>
+      </c>
+      <c r="JN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP10" t="n">
+        <v>1900</v>
+      </c>
+      <c r="JQ10" t="n">
+        <v>100</v>
+      </c>
+      <c r="JR10" t="n">
+        <v>600</v>
+      </c>
+      <c r="JS10" t="n">
+        <v>500</v>
+      </c>
+      <c r="JT10" t="n">
+        <v>100</v>
+      </c>
+      <c r="JU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW10" t="n">
+        <v>500</v>
+      </c>
+      <c r="JX10" t="n">
+        <v>2100</v>
+      </c>
+      <c r="JY10" t="n">
+        <v>400</v>
+      </c>
+      <c r="JZ10" t="n">
+        <v>200</v>
+      </c>
+      <c r="KA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC10" t="n">
+        <v>1300</v>
+      </c>
+      <c r="KD10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="KE10" t="n">
+        <v>1300</v>
+      </c>
+      <c r="KF10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="KG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH10" t="n">
+        <v>300</v>
+      </c>
+      <c r="KI10" t="n">
+        <v>100</v>
+      </c>
+      <c r="KJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK10" t="n">
+        <v>100</v>
+      </c>
+      <c r="KL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM10" t="n">
+        <v>100</v>
+      </c>
+      <c r="KN10" t="n">
+        <v>200</v>
+      </c>
+      <c r="KO10" t="n">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/IndexEnhancement/模拟盘PnL跟踪 - 100w.xlsx
+++ b/IndexEnhancement/模拟盘PnL跟踪 - 100w.xlsx
@@ -1302,7 +1302,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KO10"/>
+  <dimension ref="A1:KO11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="KO4" sqref="B4:KO4"/>
@@ -9371,7 +9371,7 @@
     </row>
     <row r="10" spans="1:301">
       <c r="A10" s="5" t="n">
-        <v>43438.62083333333</v>
+        <v>43438.62083333332</v>
       </c>
       <c r="B10" t="n">
         <v>100</v>
@@ -9424,9 +9424,6 @@
       <c r="R10" t="n">
         <v>100</v>
       </c>
-      <c r="S10" t="n">
-        <v/>
-      </c>
       <c r="T10" t="n">
         <v>800</v>
       </c>
@@ -9568,9 +9565,6 @@
       <c r="BN10" t="n">
         <v>500</v>
       </c>
-      <c r="BO10" t="n">
-        <v/>
-      </c>
       <c r="BP10" t="n">
         <v>200</v>
       </c>
@@ -9808,9 +9802,6 @@
       <c r="EP10" t="n">
         <v>0</v>
       </c>
-      <c r="EQ10" t="n">
-        <v/>
-      </c>
       <c r="ER10" t="n">
         <v>200</v>
       </c>
@@ -10272,6 +10263,911 @@
       </c>
       <c r="KO10" t="n">
         <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:301">
+      <c r="A11" s="5" t="n">
+        <v>43439.62083333333</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>100</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>200</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>200</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1900</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>600</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>200</v>
+      </c>
+      <c r="P11" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>400</v>
+      </c>
+      <c r="R11" t="n">
+        <v>200</v>
+      </c>
+      <c r="S11" t="n">
+        <v/>
+      </c>
+      <c r="T11" t="n">
+        <v>600</v>
+      </c>
+      <c r="U11" t="n">
+        <v>300</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>100</v>
+      </c>
+      <c r="X11" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>400</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>900</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>400</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>300</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>300</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>200</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>300</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>900</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>700</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>100</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>500</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>100</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>300</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>300</v>
+      </c>
+      <c r="BO11" t="n">
+        <v/>
+      </c>
+      <c r="BP11" t="n">
+        <v>400</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>100</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>2600</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>500</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>200</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>300</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>300</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>900</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>200</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>100</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>200</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>100</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>100</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>100</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>200</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>100</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>200</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>200</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>700</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>100</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>600</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>200</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT11" t="n">
+        <v>300</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>200</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>300</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>300</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>100</v>
+      </c>
+      <c r="DA11" t="n">
+        <v>100</v>
+      </c>
+      <c r="DB11" t="n">
+        <v>200</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>200</v>
+      </c>
+      <c r="DF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG11" t="n">
+        <v>100</v>
+      </c>
+      <c r="DH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL11" t="n">
+        <v>700</v>
+      </c>
+      <c r="DM11" t="n">
+        <v>1900</v>
+      </c>
+      <c r="DN11" t="n">
+        <v>100</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP11" t="n">
+        <v>1400</v>
+      </c>
+      <c r="DQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS11" t="n">
+        <v>400</v>
+      </c>
+      <c r="DT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX11" t="n">
+        <v>1600</v>
+      </c>
+      <c r="DY11" t="n">
+        <v>200</v>
+      </c>
+      <c r="DZ11" t="n">
+        <v>600</v>
+      </c>
+      <c r="EA11" t="n">
+        <v>200</v>
+      </c>
+      <c r="EB11" t="n">
+        <v>100</v>
+      </c>
+      <c r="EC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE11" t="n">
+        <v>400</v>
+      </c>
+      <c r="EF11" t="n">
+        <v>700</v>
+      </c>
+      <c r="EG11" t="n">
+        <v>600</v>
+      </c>
+      <c r="EH11" t="n">
+        <v>100</v>
+      </c>
+      <c r="EI11" t="n">
+        <v>500</v>
+      </c>
+      <c r="EJ11" t="n">
+        <v>200</v>
+      </c>
+      <c r="EK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL11" t="n">
+        <v>300</v>
+      </c>
+      <c r="EM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="EO11" t="n">
+        <v>300</v>
+      </c>
+      <c r="EP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ11" t="n">
+        <v/>
+      </c>
+      <c r="ER11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES11" t="n">
+        <v>200</v>
+      </c>
+      <c r="ET11" t="n">
+        <v>900</v>
+      </c>
+      <c r="EU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV11" t="n">
+        <v>400</v>
+      </c>
+      <c r="EW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY11" t="n">
+        <v>2100</v>
+      </c>
+      <c r="EZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB11" t="n">
+        <v>100</v>
+      </c>
+      <c r="FC11" t="n">
+        <v>100</v>
+      </c>
+      <c r="FD11" t="n">
+        <v>300</v>
+      </c>
+      <c r="FE11" t="n">
+        <v>300</v>
+      </c>
+      <c r="FF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG11" t="n">
+        <v>500</v>
+      </c>
+      <c r="FH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI11" t="n">
+        <v>600</v>
+      </c>
+      <c r="FJ11" t="n">
+        <v>100</v>
+      </c>
+      <c r="FK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM11" t="n">
+        <v>200</v>
+      </c>
+      <c r="FN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO11" t="n">
+        <v>200</v>
+      </c>
+      <c r="FP11" t="n">
+        <v>200</v>
+      </c>
+      <c r="FQ11" t="n">
+        <v>1300</v>
+      </c>
+      <c r="FR11" t="n">
+        <v>500</v>
+      </c>
+      <c r="FS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT11" t="n">
+        <v>100</v>
+      </c>
+      <c r="FU11" t="n">
+        <v>1800</v>
+      </c>
+      <c r="FV11" t="n">
+        <v>100</v>
+      </c>
+      <c r="FW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX11" t="n">
+        <v>1200</v>
+      </c>
+      <c r="FY11" t="n">
+        <v>100</v>
+      </c>
+      <c r="FZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC11" t="n">
+        <v>500</v>
+      </c>
+      <c r="GD11" t="n">
+        <v>200</v>
+      </c>
+      <c r="GE11" t="n">
+        <v>400</v>
+      </c>
+      <c r="GF11" t="n">
+        <v>200</v>
+      </c>
+      <c r="GG11" t="n">
+        <v>100</v>
+      </c>
+      <c r="GH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK11" t="n">
+        <v>100</v>
+      </c>
+      <c r="GL11" t="n">
+        <v>200</v>
+      </c>
+      <c r="GM11" t="n">
+        <v>100</v>
+      </c>
+      <c r="GN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO11" t="n">
+        <v>500</v>
+      </c>
+      <c r="GP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR11" t="n">
+        <v>300</v>
+      </c>
+      <c r="GS11" t="n">
+        <v>100</v>
+      </c>
+      <c r="GT11" t="n">
+        <v>600</v>
+      </c>
+      <c r="GU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV11" t="n">
+        <v>200</v>
+      </c>
+      <c r="GW11" t="n">
+        <v>300</v>
+      </c>
+      <c r="GX11" t="n">
+        <v>3200</v>
+      </c>
+      <c r="GY11" t="n">
+        <v>200</v>
+      </c>
+      <c r="GZ11" t="n">
+        <v>400</v>
+      </c>
+      <c r="HA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC11" t="n">
+        <v>500</v>
+      </c>
+      <c r="HD11" t="n">
+        <v>900</v>
+      </c>
+      <c r="HE11" t="n">
+        <v>1100</v>
+      </c>
+      <c r="HF11" t="n">
+        <v>100</v>
+      </c>
+      <c r="HG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM11" t="n">
+        <v>600</v>
+      </c>
+      <c r="HN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO11" t="n">
+        <v>200</v>
+      </c>
+      <c r="HP11" t="n">
+        <v>400</v>
+      </c>
+      <c r="HQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR11" t="n">
+        <v>600</v>
+      </c>
+      <c r="HS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT11" t="n">
+        <v>100</v>
+      </c>
+      <c r="HU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX11" t="n">
+        <v>1100</v>
+      </c>
+      <c r="HY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA11" t="n">
+        <v>300</v>
+      </c>
+      <c r="IB11" t="n">
+        <v>1100</v>
+      </c>
+      <c r="IC11" t="n">
+        <v>200</v>
+      </c>
+      <c r="ID11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE11" t="n">
+        <v>500</v>
+      </c>
+      <c r="IF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="II11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN11" t="n">
+        <v>800</v>
+      </c>
+      <c r="IO11" t="n">
+        <v>1300</v>
+      </c>
+      <c r="IP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR11" t="n">
+        <v>400</v>
+      </c>
+      <c r="IS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU11" t="n">
+        <v>100</v>
+      </c>
+      <c r="IV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX11" t="n">
+        <v>100</v>
+      </c>
+      <c r="IY11" t="n">
+        <v>600</v>
+      </c>
+      <c r="IZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC11" t="n">
+        <v>2600</v>
+      </c>
+      <c r="JD11" t="n">
+        <v>200</v>
+      </c>
+      <c r="JE11" t="n">
+        <v>600</v>
+      </c>
+      <c r="JF11" t="n">
+        <v>500</v>
+      </c>
+      <c r="JG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH11" t="n">
+        <v>1400</v>
+      </c>
+      <c r="JI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL11" t="n">
+        <v>500</v>
+      </c>
+      <c r="JM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP11" t="n">
+        <v>400</v>
+      </c>
+      <c r="JQ11" t="n">
+        <v>200</v>
+      </c>
+      <c r="JR11" t="n">
+        <v>400</v>
+      </c>
+      <c r="JS11" t="n">
+        <v>300</v>
+      </c>
+      <c r="JT11" t="n">
+        <v>200</v>
+      </c>
+      <c r="JU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW11" t="n">
+        <v>200</v>
+      </c>
+      <c r="JX11" t="n">
+        <v>1900</v>
+      </c>
+      <c r="JY11" t="n">
+        <v>1300</v>
+      </c>
+      <c r="JZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC11" t="n">
+        <v>1200</v>
+      </c>
+      <c r="KD11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="KE11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="KF11" t="n">
+        <v>2200</v>
+      </c>
+      <c r="KG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI11" t="n">
+        <v>100</v>
+      </c>
+      <c r="KJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK11" t="n">
+        <v>100</v>
+      </c>
+      <c r="KL11" t="n">
+        <v>100</v>
+      </c>
+      <c r="KM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN11" t="n">
+        <v>300</v>
+      </c>
+      <c r="KO11" t="n">
+        <v>1300</v>
       </c>
     </row>
   </sheetData>

--- a/IndexEnhancement/模拟盘PnL跟踪 - 100w.xlsx
+++ b/IndexEnhancement/模拟盘PnL跟踪 - 100w.xlsx
@@ -1302,7 +1302,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KO11"/>
+  <dimension ref="A1:KO12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="KO4" sqref="B4:KO4"/>
@@ -10267,7 +10267,7 @@
     </row>
     <row r="11" spans="1:301">
       <c r="A11" s="5" t="n">
-        <v>43439.62083333333</v>
+        <v>43439.62083333332</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -10320,9 +10320,6 @@
       <c r="R11" t="n">
         <v>200</v>
       </c>
-      <c r="S11" t="n">
-        <v/>
-      </c>
       <c r="T11" t="n">
         <v>600</v>
       </c>
@@ -10464,9 +10461,6 @@
       <c r="BN11" t="n">
         <v>300</v>
       </c>
-      <c r="BO11" t="n">
-        <v/>
-      </c>
       <c r="BP11" t="n">
         <v>400</v>
       </c>
@@ -10704,9 +10698,6 @@
       <c r="EP11" t="n">
         <v>0</v>
       </c>
-      <c r="EQ11" t="n">
-        <v/>
-      </c>
       <c r="ER11" t="n">
         <v>0</v>
       </c>
@@ -11168,6 +11159,911 @@
       </c>
       <c r="KO11" t="n">
         <v>1300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:301">
+      <c r="A12" s="5" t="n">
+        <v>43440.62083333333</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>200</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>300</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>200</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>200</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO12" t="n">
+        <v/>
+      </c>
+      <c r="BP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>400</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>200</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>100</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>100</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>200</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>100</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>200</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW12" t="n">
+        <v>100</v>
+      </c>
+      <c r="CX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL12" t="n">
+        <v>100</v>
+      </c>
+      <c r="DM12" t="n">
+        <v>200</v>
+      </c>
+      <c r="DN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP12" t="n">
+        <v>300</v>
+      </c>
+      <c r="DQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX12" t="n">
+        <v>200</v>
+      </c>
+      <c r="DY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB12" t="n">
+        <v>100</v>
+      </c>
+      <c r="EC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE12" t="n">
+        <v>100</v>
+      </c>
+      <c r="EF12" t="n">
+        <v>100</v>
+      </c>
+      <c r="EG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI12" t="n">
+        <v>100</v>
+      </c>
+      <c r="EJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO12" t="n">
+        <v>100</v>
+      </c>
+      <c r="EP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ12" t="n">
+        <v/>
+      </c>
+      <c r="ER12" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES12" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG12" t="n">
+        <v>100</v>
+      </c>
+      <c r="FH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI12" t="n">
+        <v>100</v>
+      </c>
+      <c r="FJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM12" t="n">
+        <v>100</v>
+      </c>
+      <c r="FN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ12" t="n">
+        <v>300</v>
+      </c>
+      <c r="FR12" t="n">
+        <v>100</v>
+      </c>
+      <c r="FS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU12" t="n">
+        <v>600</v>
+      </c>
+      <c r="FV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX12" t="n">
+        <v>400</v>
+      </c>
+      <c r="FY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE12" t="n">
+        <v>100</v>
+      </c>
+      <c r="GF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT12" t="n">
+        <v>200</v>
+      </c>
+      <c r="GU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX12" t="n">
+        <v>500</v>
+      </c>
+      <c r="GY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ12" t="n">
+        <v>100</v>
+      </c>
+      <c r="HA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD12" t="n">
+        <v>100</v>
+      </c>
+      <c r="HE12" t="n">
+        <v>100</v>
+      </c>
+      <c r="HF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR12" t="n">
+        <v>200</v>
+      </c>
+      <c r="HS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE12" t="n">
+        <v>100</v>
+      </c>
+      <c r="IF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="II12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO12" t="n">
+        <v>100</v>
+      </c>
+      <c r="IP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY12" t="n">
+        <v>100</v>
+      </c>
+      <c r="IZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC12" t="n">
+        <v>500</v>
+      </c>
+      <c r="JD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF12" t="n">
+        <v>100</v>
+      </c>
+      <c r="JG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH12" t="n">
+        <v>100</v>
+      </c>
+      <c r="JI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ12" t="n">
+        <v>100</v>
+      </c>
+      <c r="JR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY12" t="n">
+        <v>200</v>
+      </c>
+      <c r="JZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD12" t="n">
+        <v>100</v>
+      </c>
+      <c r="KE12" t="n">
+        <v>200</v>
+      </c>
+      <c r="KF12" t="n">
+        <v>500</v>
+      </c>
+      <c r="KG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO12" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/IndexEnhancement/模拟盘PnL跟踪 - 100w.xlsx
+++ b/IndexEnhancement/模拟盘PnL跟踪 - 100w.xlsx
@@ -1310,10 +1310,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KO16"/>
+  <dimension ref="A1:KO19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1328,8 +1328,8 @@
     <col min="74" max="146" width="9.125" style="1" bestFit="1" customWidth="1"/>
     <col min="147" max="147" width="9" style="1" customWidth="1"/>
     <col min="148" max="301" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="302" max="306" width="9" style="1" customWidth="1"/>
-    <col min="307" max="16384" width="9" style="1"/>
+    <col min="302" max="308" width="9" style="1" customWidth="1"/>
+    <col min="309" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:301" x14ac:dyDescent="0.2">
@@ -13868,7 +13868,7 @@
       </c>
     </row>
     <row r="15" spans="1:301" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>43445.62083333332</v>
       </c>
       <c r="B15">
@@ -14770,7 +14770,7 @@
       </c>
     </row>
     <row r="16" spans="1:301" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>43446.62083333332</v>
       </c>
       <c r="B16">
@@ -15668,12 +15668,2714 @@
         <v>0</v>
       </c>
       <c r="KO16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:301" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>43447.62083333332</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>300</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>700</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>800</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>100</v>
+      </c>
+      <c r="K17">
+        <v>500</v>
+      </c>
+      <c r="L17">
+        <v>200</v>
+      </c>
+      <c r="M17">
+        <v>700</v>
+      </c>
+      <c r="N17">
+        <v>100</v>
+      </c>
+      <c r="O17">
+        <v>100</v>
+      </c>
+      <c r="P17">
+        <v>1000</v>
+      </c>
+      <c r="Q17">
+        <v>300</v>
+      </c>
+      <c r="R17">
+        <v>100</v>
+      </c>
+      <c r="T17">
+        <v>500</v>
+      </c>
+      <c r="U17">
+        <v>200</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>500</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>100</v>
+      </c>
+      <c r="AA17">
+        <v>500</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>100</v>
+      </c>
+      <c r="AI17">
+        <v>300</v>
+      </c>
+      <c r="AJ17">
+        <v>100</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>200</v>
+      </c>
+      <c r="AM17">
+        <v>100</v>
+      </c>
+      <c r="AN17">
+        <v>1000</v>
+      </c>
+      <c r="AO17">
+        <v>200</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>700</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>200</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>300</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>100</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>100</v>
+      </c>
+      <c r="BF17">
+        <v>400</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17">
+        <v>700</v>
+      </c>
+      <c r="BJ17">
+        <v>0</v>
+      </c>
+      <c r="BK17">
+        <v>300</v>
+      </c>
+      <c r="BL17">
+        <v>0</v>
+      </c>
+      <c r="BM17">
+        <v>0</v>
+      </c>
+      <c r="BN17">
+        <v>0</v>
+      </c>
+      <c r="BO17">
+        <v>0</v>
+      </c>
+      <c r="BP17">
+        <v>0</v>
+      </c>
+      <c r="BQ17">
+        <v>0</v>
+      </c>
+      <c r="BR17">
+        <v>0</v>
+      </c>
+      <c r="BS17">
+        <v>0</v>
+      </c>
+      <c r="BT17">
+        <v>900</v>
+      </c>
+      <c r="BU17">
+        <v>100</v>
+      </c>
+      <c r="BV17">
+        <v>100</v>
+      </c>
+      <c r="BW17">
+        <v>0</v>
+      </c>
+      <c r="BX17">
+        <v>0</v>
+      </c>
+      <c r="BY17">
+        <v>0</v>
+      </c>
+      <c r="BZ17">
+        <v>200</v>
+      </c>
+      <c r="CA17">
+        <v>0</v>
+      </c>
+      <c r="CB17">
+        <v>200</v>
+      </c>
+      <c r="CC17">
+        <v>0</v>
+      </c>
+      <c r="CD17">
+        <v>0</v>
+      </c>
+      <c r="CE17">
+        <v>0</v>
+      </c>
+      <c r="CF17">
+        <v>300</v>
+      </c>
+      <c r="CG17">
+        <v>100</v>
+      </c>
+      <c r="CH17">
+        <v>0</v>
+      </c>
+      <c r="CI17">
+        <v>200</v>
+      </c>
+      <c r="CJ17">
+        <v>100</v>
+      </c>
+      <c r="CK17">
+        <v>0</v>
+      </c>
+      <c r="CL17">
+        <v>0</v>
+      </c>
+      <c r="CM17">
+        <v>0</v>
+      </c>
+      <c r="CN17">
+        <v>300</v>
+      </c>
+      <c r="CO17">
+        <v>600</v>
+      </c>
+      <c r="CP17">
+        <v>0</v>
+      </c>
+      <c r="CQ17">
+        <v>200</v>
+      </c>
+      <c r="CR17">
+        <v>100</v>
+      </c>
+      <c r="CS17">
+        <v>100</v>
+      </c>
+      <c r="CT17">
+        <v>900</v>
+      </c>
+      <c r="CU17">
+        <v>0</v>
+      </c>
+      <c r="CV17">
+        <v>0</v>
+      </c>
+      <c r="CW17">
+        <v>100</v>
+      </c>
+      <c r="CX17">
+        <v>200</v>
+      </c>
+      <c r="CY17">
+        <v>0</v>
+      </c>
+      <c r="CZ17">
+        <v>100</v>
+      </c>
+      <c r="DA17">
+        <v>100</v>
+      </c>
+      <c r="DB17">
+        <v>200</v>
+      </c>
+      <c r="DC17">
+        <v>500</v>
+      </c>
+      <c r="DD17">
+        <v>200</v>
+      </c>
+      <c r="DE17">
+        <v>0</v>
+      </c>
+      <c r="DF17">
+        <v>100</v>
+      </c>
+      <c r="DG17">
+        <v>0</v>
+      </c>
+      <c r="DH17">
+        <v>0</v>
+      </c>
+      <c r="DI17">
+        <v>500</v>
+      </c>
+      <c r="DJ17">
+        <v>0</v>
+      </c>
+      <c r="DK17">
+        <v>0</v>
+      </c>
+      <c r="DL17">
+        <v>100</v>
+      </c>
+      <c r="DM17">
+        <v>700</v>
+      </c>
+      <c r="DN17">
+        <v>100</v>
+      </c>
+      <c r="DO17">
+        <v>400</v>
+      </c>
+      <c r="DP17">
+        <v>1200</v>
+      </c>
+      <c r="DQ17">
+        <v>0</v>
+      </c>
+      <c r="DR17">
+        <v>0</v>
+      </c>
+      <c r="DS17">
+        <v>0</v>
+      </c>
+      <c r="DT17">
+        <v>0</v>
+      </c>
+      <c r="DU17">
+        <v>300</v>
+      </c>
+      <c r="DV17">
+        <v>1000</v>
+      </c>
+      <c r="DW17">
+        <v>0</v>
+      </c>
+      <c r="DX17">
+        <v>700</v>
+      </c>
+      <c r="DY17">
+        <v>100</v>
+      </c>
+      <c r="DZ17">
+        <v>1100</v>
+      </c>
+      <c r="EA17">
+        <v>0</v>
+      </c>
+      <c r="EB17">
+        <v>200</v>
+      </c>
+      <c r="EC17">
+        <v>400</v>
+      </c>
+      <c r="ED17">
+        <v>0</v>
+      </c>
+      <c r="EE17">
+        <v>0</v>
+      </c>
+      <c r="EF17">
+        <v>600</v>
+      </c>
+      <c r="EG17">
+        <v>1000</v>
+      </c>
+      <c r="EH17">
+        <v>100</v>
+      </c>
+      <c r="EI17">
+        <v>600</v>
+      </c>
+      <c r="EJ17">
+        <v>300</v>
+      </c>
+      <c r="EK17">
+        <v>0</v>
+      </c>
+      <c r="EL17">
+        <v>0</v>
+      </c>
+      <c r="EM17">
+        <v>0</v>
+      </c>
+      <c r="EN17">
+        <v>0</v>
+      </c>
+      <c r="EO17">
+        <v>100</v>
+      </c>
+      <c r="EP17">
+        <v>0</v>
+      </c>
+      <c r="EQ17">
+        <v>0</v>
+      </c>
+      <c r="ER17">
+        <v>1200</v>
+      </c>
+      <c r="ES17">
+        <v>400</v>
+      </c>
+      <c r="ET17">
+        <v>500</v>
+      </c>
+      <c r="EU17">
+        <v>0</v>
+      </c>
+      <c r="EV17">
+        <v>0</v>
+      </c>
+      <c r="EW17">
+        <v>0</v>
+      </c>
+      <c r="EX17">
+        <v>0</v>
+      </c>
+      <c r="EY17">
+        <v>0</v>
+      </c>
+      <c r="EZ17">
+        <v>0</v>
+      </c>
+      <c r="FA17">
+        <v>0</v>
+      </c>
+      <c r="FB17">
+        <v>0</v>
+      </c>
+      <c r="FC17">
+        <v>0</v>
+      </c>
+      <c r="FD17">
+        <v>200</v>
+      </c>
+      <c r="FE17">
+        <v>0</v>
+      </c>
+      <c r="FF17">
+        <v>0</v>
+      </c>
+      <c r="FG17">
+        <v>300</v>
+      </c>
+      <c r="FH17">
+        <v>200</v>
+      </c>
+      <c r="FI17">
+        <v>600</v>
+      </c>
+      <c r="FJ17">
+        <v>100</v>
+      </c>
+      <c r="FK17">
+        <v>0</v>
+      </c>
+      <c r="FL17">
+        <v>0</v>
+      </c>
+      <c r="FM17">
+        <v>400</v>
+      </c>
+      <c r="FN17">
+        <v>600</v>
+      </c>
+      <c r="FO17">
+        <v>700</v>
+      </c>
+      <c r="FP17">
+        <v>0</v>
+      </c>
+      <c r="FQ17">
+        <v>900</v>
+      </c>
+      <c r="FR17">
+        <v>400</v>
+      </c>
+      <c r="FS17">
+        <v>0</v>
+      </c>
+      <c r="FT17">
+        <v>100</v>
+      </c>
+      <c r="FU17">
+        <v>700</v>
+      </c>
+      <c r="FV17">
+        <v>0</v>
+      </c>
+      <c r="FW17">
+        <v>0</v>
+      </c>
+      <c r="FX17">
+        <v>1300</v>
+      </c>
+      <c r="FY17">
+        <v>0</v>
+      </c>
+      <c r="FZ17">
+        <v>0</v>
+      </c>
+      <c r="GA17">
+        <v>0</v>
+      </c>
+      <c r="GB17">
+        <v>0</v>
+      </c>
+      <c r="GC17">
+        <v>600</v>
+      </c>
+      <c r="GD17">
+        <v>0</v>
+      </c>
+      <c r="GE17">
+        <v>400</v>
+      </c>
+      <c r="GF17">
+        <v>0</v>
+      </c>
+      <c r="GG17">
+        <v>100</v>
+      </c>
+      <c r="GH17">
+        <v>100</v>
+      </c>
+      <c r="GI17">
+        <v>0</v>
+      </c>
+      <c r="GJ17">
+        <v>0</v>
+      </c>
+      <c r="GK17">
+        <v>500</v>
+      </c>
+      <c r="GL17">
+        <v>200</v>
+      </c>
+      <c r="GM17">
+        <v>0</v>
+      </c>
+      <c r="GN17">
+        <v>0</v>
+      </c>
+      <c r="GO17">
+        <v>500</v>
+      </c>
+      <c r="GP17">
+        <v>0</v>
+      </c>
+      <c r="GQ17">
+        <v>500</v>
+      </c>
+      <c r="GR17">
+        <v>300</v>
+      </c>
+      <c r="GS17">
+        <v>200</v>
+      </c>
+      <c r="GT17">
+        <v>0</v>
+      </c>
+      <c r="GU17">
+        <v>0</v>
+      </c>
+      <c r="GV17">
+        <v>0</v>
+      </c>
+      <c r="GW17">
+        <v>300</v>
+      </c>
+      <c r="GX17">
+        <v>1400</v>
+      </c>
+      <c r="GY17">
+        <v>0</v>
+      </c>
+      <c r="GZ17">
+        <v>200</v>
+      </c>
+      <c r="HA17">
+        <v>0</v>
+      </c>
+      <c r="HB17">
+        <v>600</v>
+      </c>
+      <c r="HC17">
+        <v>400</v>
+      </c>
+      <c r="HD17">
+        <v>0</v>
+      </c>
+      <c r="HE17">
+        <v>800</v>
+      </c>
+      <c r="HF17">
+        <v>0</v>
+      </c>
+      <c r="HG17">
+        <v>0</v>
+      </c>
+      <c r="HH17">
+        <v>300</v>
+      </c>
+      <c r="HI17">
+        <v>0</v>
+      </c>
+      <c r="HJ17">
+        <v>0</v>
+      </c>
+      <c r="HK17">
+        <v>0</v>
+      </c>
+      <c r="HL17">
+        <v>0</v>
+      </c>
+      <c r="HM17">
+        <v>0</v>
+      </c>
+      <c r="HN17">
+        <v>400</v>
+      </c>
+      <c r="HO17">
+        <v>0</v>
+      </c>
+      <c r="HP17">
+        <v>400</v>
+      </c>
+      <c r="HQ17">
+        <v>0</v>
+      </c>
+      <c r="HR17">
+        <v>400</v>
+      </c>
+      <c r="HS17">
+        <v>0</v>
+      </c>
+      <c r="HT17">
+        <v>0</v>
+      </c>
+      <c r="HU17">
+        <v>100</v>
+      </c>
+      <c r="HV17">
+        <v>0</v>
+      </c>
+      <c r="HW17">
+        <v>0</v>
+      </c>
+      <c r="HX17">
+        <v>400</v>
+      </c>
+      <c r="HY17">
+        <v>500</v>
+      </c>
+      <c r="HZ17">
+        <v>200</v>
+      </c>
+      <c r="IA17">
+        <v>0</v>
+      </c>
+      <c r="IB17">
+        <v>100</v>
+      </c>
+      <c r="IC17">
+        <v>900</v>
+      </c>
+      <c r="ID17">
+        <v>0</v>
+      </c>
+      <c r="IE17">
+        <v>300</v>
+      </c>
+      <c r="IF17">
+        <v>0</v>
+      </c>
+      <c r="IG17">
+        <v>0</v>
+      </c>
+      <c r="IH17">
+        <v>200</v>
+      </c>
+      <c r="II17">
+        <v>0</v>
+      </c>
+      <c r="IJ17">
+        <v>200</v>
+      </c>
+      <c r="IK17">
+        <v>200</v>
+      </c>
+      <c r="IL17">
+        <v>0</v>
+      </c>
+      <c r="IM17">
+        <v>0</v>
+      </c>
+      <c r="IN17">
+        <v>0</v>
+      </c>
+      <c r="IO17">
+        <v>900</v>
+      </c>
+      <c r="IP17">
+        <v>0</v>
+      </c>
+      <c r="IQ17">
+        <v>0</v>
+      </c>
+      <c r="IR17">
+        <v>0</v>
+      </c>
+      <c r="IS17">
+        <v>900</v>
+      </c>
+      <c r="IT17">
+        <v>0</v>
+      </c>
+      <c r="IU17">
+        <v>100</v>
+      </c>
+      <c r="IV17">
+        <v>0</v>
+      </c>
+      <c r="IW17">
+        <v>0</v>
+      </c>
+      <c r="IX17">
+        <v>0</v>
+      </c>
+      <c r="IY17">
+        <v>600</v>
+      </c>
+      <c r="IZ17">
+        <v>1200</v>
+      </c>
+      <c r="JA17">
+        <v>0</v>
+      </c>
+      <c r="JB17">
+        <v>0</v>
+      </c>
+      <c r="JC17">
+        <v>1800</v>
+      </c>
+      <c r="JD17">
+        <v>1500</v>
+      </c>
+      <c r="JE17">
+        <v>200</v>
+      </c>
+      <c r="JF17">
+        <v>100</v>
+      </c>
+      <c r="JG17">
+        <v>0</v>
+      </c>
+      <c r="JH17">
+        <v>1300</v>
+      </c>
+      <c r="JI17">
+        <v>0</v>
+      </c>
+      <c r="JJ17">
+        <v>500</v>
+      </c>
+      <c r="JK17">
+        <v>0</v>
+      </c>
+      <c r="JL17">
+        <v>0</v>
+      </c>
+      <c r="JM17">
+        <v>0</v>
+      </c>
+      <c r="JN17">
+        <v>0</v>
+      </c>
+      <c r="JO17">
+        <v>0</v>
+      </c>
+      <c r="JP17">
+        <v>500</v>
+      </c>
+      <c r="JQ17">
+        <v>200</v>
+      </c>
+      <c r="JR17">
+        <v>100</v>
+      </c>
+      <c r="JS17">
+        <v>0</v>
+      </c>
+      <c r="JT17">
+        <v>200</v>
+      </c>
+      <c r="JU17">
+        <v>0</v>
+      </c>
+      <c r="JV17">
+        <v>100</v>
+      </c>
+      <c r="JW17">
+        <v>0</v>
+      </c>
+      <c r="JX17">
+        <v>0</v>
+      </c>
+      <c r="JY17">
+        <v>1000</v>
+      </c>
+      <c r="JZ17">
+        <v>200</v>
+      </c>
+      <c r="KA17">
+        <v>100</v>
+      </c>
+      <c r="KB17">
+        <v>0</v>
+      </c>
+      <c r="KC17">
+        <v>100</v>
+      </c>
+      <c r="KD17">
+        <v>800</v>
+      </c>
+      <c r="KE17">
+        <v>0</v>
+      </c>
+      <c r="KF17">
+        <v>1300</v>
+      </c>
+      <c r="KG17">
+        <v>0</v>
+      </c>
+      <c r="KH17">
+        <v>0</v>
+      </c>
+      <c r="KI17">
+        <v>100</v>
+      </c>
+      <c r="KJ17">
+        <v>0</v>
+      </c>
+      <c r="KK17">
+        <v>100</v>
+      </c>
+      <c r="KL17">
+        <v>0</v>
+      </c>
+      <c r="KM17">
+        <v>100</v>
+      </c>
+      <c r="KN17">
+        <v>0</v>
+      </c>
+      <c r="KO17">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18" spans="1:301" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>43448.62083333332</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>100</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>200</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>200</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>100</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>100</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>200</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <v>100</v>
+      </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
+        <v>0</v>
+      </c>
+      <c r="BI18">
+        <v>200</v>
+      </c>
+      <c r="BJ18">
+        <v>0</v>
+      </c>
+      <c r="BK18">
+        <v>0</v>
+      </c>
+      <c r="BL18">
+        <v>0</v>
+      </c>
+      <c r="BM18">
+        <v>0</v>
+      </c>
+      <c r="BN18">
+        <v>0</v>
+      </c>
+      <c r="BO18">
+        <v>0</v>
+      </c>
+      <c r="BP18">
+        <v>0</v>
+      </c>
+      <c r="BQ18">
+        <v>0</v>
+      </c>
+      <c r="BR18">
+        <v>0</v>
+      </c>
+      <c r="BS18">
+        <v>0</v>
+      </c>
+      <c r="BT18">
+        <v>0</v>
+      </c>
+      <c r="BU18">
+        <v>0</v>
+      </c>
+      <c r="BV18">
+        <v>0</v>
+      </c>
+      <c r="BW18">
+        <v>0</v>
+      </c>
+      <c r="BX18">
+        <v>0</v>
+      </c>
+      <c r="BY18">
+        <v>0</v>
+      </c>
+      <c r="BZ18">
+        <v>0</v>
+      </c>
+      <c r="CA18">
+        <v>0</v>
+      </c>
+      <c r="CB18">
+        <v>0</v>
+      </c>
+      <c r="CC18">
+        <v>0</v>
+      </c>
+      <c r="CD18">
+        <v>0</v>
+      </c>
+      <c r="CE18">
+        <v>0</v>
+      </c>
+      <c r="CF18">
+        <v>100</v>
+      </c>
+      <c r="CG18">
+        <v>0</v>
+      </c>
+      <c r="CH18">
+        <v>0</v>
+      </c>
+      <c r="CI18">
+        <v>0</v>
+      </c>
+      <c r="CJ18">
+        <v>0</v>
+      </c>
+      <c r="CK18">
+        <v>0</v>
+      </c>
+      <c r="CL18">
+        <v>0</v>
+      </c>
+      <c r="CM18">
+        <v>0</v>
+      </c>
+      <c r="CN18">
+        <v>100</v>
+      </c>
+      <c r="CO18">
+        <v>200</v>
+      </c>
+      <c r="CP18">
+        <v>0</v>
+      </c>
+      <c r="CQ18">
+        <v>0</v>
+      </c>
+      <c r="CR18">
+        <v>0</v>
+      </c>
+      <c r="CS18">
+        <v>0</v>
+      </c>
+      <c r="CT18">
+        <v>100</v>
+      </c>
+      <c r="CU18">
+        <v>0</v>
+      </c>
+      <c r="CV18">
+        <v>0</v>
+      </c>
+      <c r="CW18">
+        <v>0</v>
+      </c>
+      <c r="CX18">
+        <v>0</v>
+      </c>
+      <c r="CY18">
+        <v>0</v>
+      </c>
+      <c r="CZ18">
+        <v>0</v>
+      </c>
+      <c r="DA18">
+        <v>0</v>
+      </c>
+      <c r="DB18">
+        <v>0</v>
+      </c>
+      <c r="DC18">
+        <v>0</v>
+      </c>
+      <c r="DD18">
+        <v>0</v>
+      </c>
+      <c r="DE18">
+        <v>0</v>
+      </c>
+      <c r="DF18">
+        <v>0</v>
+      </c>
+      <c r="DG18">
+        <v>0</v>
+      </c>
+      <c r="DH18">
+        <v>0</v>
+      </c>
+      <c r="DI18">
+        <v>100</v>
+      </c>
+      <c r="DJ18">
+        <v>0</v>
+      </c>
+      <c r="DK18">
+        <v>0</v>
+      </c>
+      <c r="DL18">
+        <v>0</v>
+      </c>
+      <c r="DM18">
+        <v>200</v>
+      </c>
+      <c r="DN18">
+        <v>0</v>
+      </c>
+      <c r="DO18">
+        <v>100</v>
+      </c>
+      <c r="DP18">
+        <v>300</v>
+      </c>
+      <c r="DQ18">
+        <v>0</v>
+      </c>
+      <c r="DR18">
+        <v>0</v>
+      </c>
+      <c r="DS18">
+        <v>0</v>
+      </c>
+      <c r="DT18">
+        <v>0</v>
+      </c>
+      <c r="DU18">
+        <v>0</v>
+      </c>
+      <c r="DV18">
+        <v>0</v>
+      </c>
+      <c r="DW18">
+        <v>0</v>
+      </c>
+      <c r="DX18">
+        <v>0</v>
+      </c>
+      <c r="DY18">
+        <v>0</v>
+      </c>
+      <c r="DZ18">
+        <v>300</v>
+      </c>
+      <c r="EA18">
+        <v>0</v>
+      </c>
+      <c r="EB18">
+        <v>100</v>
+      </c>
+      <c r="EC18">
+        <v>0</v>
+      </c>
+      <c r="ED18">
+        <v>0</v>
+      </c>
+      <c r="EE18">
+        <v>0</v>
+      </c>
+      <c r="EF18">
+        <v>0</v>
+      </c>
+      <c r="EG18">
+        <v>200</v>
+      </c>
+      <c r="EH18">
+        <v>0</v>
+      </c>
+      <c r="EI18">
+        <v>0</v>
+      </c>
+      <c r="EJ18">
+        <v>0</v>
+      </c>
+      <c r="EK18">
+        <v>0</v>
+      </c>
+      <c r="EL18">
+        <v>0</v>
+      </c>
+      <c r="EM18">
+        <v>0</v>
+      </c>
+      <c r="EN18">
+        <v>0</v>
+      </c>
+      <c r="EO18">
+        <v>0</v>
+      </c>
+      <c r="EP18">
+        <v>0</v>
+      </c>
+      <c r="EQ18">
+        <v>0</v>
+      </c>
+      <c r="ER18">
+        <v>0</v>
+      </c>
+      <c r="ES18">
+        <v>100</v>
+      </c>
+      <c r="ET18">
+        <v>0</v>
+      </c>
+      <c r="EU18">
+        <v>0</v>
+      </c>
+      <c r="EV18">
+        <v>0</v>
+      </c>
+      <c r="EW18">
+        <v>0</v>
+      </c>
+      <c r="EX18">
+        <v>0</v>
+      </c>
+      <c r="EY18">
+        <v>0</v>
+      </c>
+      <c r="EZ18">
+        <v>0</v>
+      </c>
+      <c r="FA18">
+        <v>0</v>
+      </c>
+      <c r="FB18">
+        <v>0</v>
+      </c>
+      <c r="FC18">
+        <v>0</v>
+      </c>
+      <c r="FD18">
+        <v>0</v>
+      </c>
+      <c r="FE18">
+        <v>0</v>
+      </c>
+      <c r="FF18">
+        <v>0</v>
+      </c>
+      <c r="FG18">
+        <v>100</v>
+      </c>
+      <c r="FH18">
+        <v>0</v>
+      </c>
+      <c r="FI18">
+        <v>200</v>
+      </c>
+      <c r="FJ18">
+        <v>0</v>
+      </c>
+      <c r="FK18">
+        <v>0</v>
+      </c>
+      <c r="FL18">
+        <v>0</v>
+      </c>
+      <c r="FM18">
+        <v>100</v>
+      </c>
+      <c r="FN18">
+        <v>100</v>
+      </c>
+      <c r="FO18">
+        <v>100</v>
+      </c>
+      <c r="FP18">
+        <v>0</v>
+      </c>
+      <c r="FQ18">
+        <v>300</v>
+      </c>
+      <c r="FR18">
+        <v>100</v>
+      </c>
+      <c r="FS18">
+        <v>0</v>
+      </c>
+      <c r="FT18">
+        <v>0</v>
+      </c>
+      <c r="FU18">
+        <v>100</v>
+      </c>
+      <c r="FW18">
+        <v>0</v>
+      </c>
+      <c r="FX18">
+        <v>200</v>
+      </c>
+      <c r="FY18">
+        <v>0</v>
+      </c>
+      <c r="FZ18">
+        <v>0</v>
+      </c>
+      <c r="GA18">
+        <v>0</v>
+      </c>
+      <c r="GB18">
+        <v>0</v>
+      </c>
+      <c r="GC18">
+        <v>100</v>
+      </c>
+      <c r="GD18">
+        <v>0</v>
+      </c>
+      <c r="GE18">
+        <v>0</v>
+      </c>
+      <c r="GF18">
+        <v>0</v>
+      </c>
+      <c r="GG18">
+        <v>0</v>
+      </c>
+      <c r="GH18">
+        <v>0</v>
+      </c>
+      <c r="GI18">
+        <v>0</v>
+      </c>
+      <c r="GJ18">
+        <v>0</v>
+      </c>
+      <c r="GK18">
+        <v>0</v>
+      </c>
+      <c r="GL18">
+        <v>0</v>
+      </c>
+      <c r="GM18">
+        <v>0</v>
+      </c>
+      <c r="GN18">
+        <v>0</v>
+      </c>
+      <c r="GO18">
+        <v>100</v>
+      </c>
+      <c r="GP18">
+        <v>0</v>
+      </c>
+      <c r="GQ18">
+        <v>300</v>
+      </c>
+      <c r="GR18">
+        <v>100</v>
+      </c>
+      <c r="GS18">
+        <v>0</v>
+      </c>
+      <c r="GT18">
+        <v>0</v>
+      </c>
+      <c r="GU18">
+        <v>0</v>
+      </c>
+      <c r="GV18">
+        <v>0</v>
+      </c>
+      <c r="GW18">
+        <v>0</v>
+      </c>
+      <c r="GX18">
+        <v>100</v>
+      </c>
+      <c r="GY18">
+        <v>0</v>
+      </c>
+      <c r="GZ18">
+        <v>100</v>
+      </c>
+      <c r="HA18">
+        <v>0</v>
+      </c>
+      <c r="HB18">
+        <v>100</v>
+      </c>
+      <c r="HC18">
+        <v>0</v>
+      </c>
+      <c r="HD18">
+        <v>0</v>
+      </c>
+      <c r="HE18">
+        <v>300</v>
+      </c>
+      <c r="HF18">
+        <v>0</v>
+      </c>
+      <c r="HG18">
+        <v>0</v>
+      </c>
+      <c r="HH18">
+        <v>100</v>
+      </c>
+      <c r="HI18">
+        <v>0</v>
+      </c>
+      <c r="HJ18">
+        <v>0</v>
+      </c>
+      <c r="HK18">
+        <v>0</v>
+      </c>
+      <c r="HL18">
+        <v>0</v>
+      </c>
+      <c r="HM18">
+        <v>0</v>
+      </c>
+      <c r="HN18">
+        <v>100</v>
+      </c>
+      <c r="HO18">
+        <v>0</v>
+      </c>
+      <c r="HP18">
+        <v>100</v>
+      </c>
+      <c r="HQ18">
+        <v>0</v>
+      </c>
+      <c r="HR18">
+        <v>100</v>
+      </c>
+      <c r="HS18">
+        <v>0</v>
+      </c>
+      <c r="HT18">
+        <v>0</v>
+      </c>
+      <c r="HU18">
+        <v>0</v>
+      </c>
+      <c r="HV18">
+        <v>0</v>
+      </c>
+      <c r="HW18">
+        <v>0</v>
+      </c>
+      <c r="HX18">
+        <v>0</v>
+      </c>
+      <c r="HY18">
+        <v>0</v>
+      </c>
+      <c r="HZ18">
+        <v>0</v>
+      </c>
+      <c r="IA18">
+        <v>0</v>
+      </c>
+      <c r="IB18">
+        <v>0</v>
+      </c>
+      <c r="IC18">
+        <v>200</v>
+      </c>
+      <c r="ID18">
+        <v>0</v>
+      </c>
+      <c r="IE18">
+        <v>0</v>
+      </c>
+      <c r="IF18">
+        <v>0</v>
+      </c>
+      <c r="IG18">
+        <v>0</v>
+      </c>
+      <c r="IH18">
+        <v>0</v>
+      </c>
+      <c r="II18">
+        <v>0</v>
+      </c>
+      <c r="IJ18">
+        <v>0</v>
+      </c>
+      <c r="IK18">
+        <v>100</v>
+      </c>
+      <c r="IL18">
+        <v>0</v>
+      </c>
+      <c r="IM18">
+        <v>0</v>
+      </c>
+      <c r="IN18">
+        <v>0</v>
+      </c>
+      <c r="IO18">
+        <v>0</v>
+      </c>
+      <c r="IP18">
+        <v>0</v>
+      </c>
+      <c r="IQ18">
+        <v>0</v>
+      </c>
+      <c r="IR18">
+        <v>0</v>
+      </c>
+      <c r="IS18">
+        <v>100</v>
+      </c>
+      <c r="IT18">
+        <v>0</v>
+      </c>
+      <c r="IU18">
+        <v>0</v>
+      </c>
+      <c r="IV18">
+        <v>0</v>
+      </c>
+      <c r="IW18">
+        <v>0</v>
+      </c>
+      <c r="IX18">
+        <v>0</v>
+      </c>
+      <c r="IY18">
+        <v>0</v>
+      </c>
+      <c r="IZ18">
+        <v>400</v>
+      </c>
+      <c r="JA18">
+        <v>0</v>
+      </c>
+      <c r="JB18">
+        <v>0</v>
+      </c>
+      <c r="JC18">
+        <v>600</v>
+      </c>
+      <c r="JD18">
+        <v>400</v>
+      </c>
+      <c r="JE18">
+        <v>0</v>
+      </c>
+      <c r="JF18">
+        <v>0</v>
+      </c>
+      <c r="JG18">
+        <v>0</v>
+      </c>
+      <c r="JH18">
+        <v>300</v>
+      </c>
+      <c r="JI18">
+        <v>0</v>
+      </c>
+      <c r="JJ18">
+        <v>200</v>
+      </c>
+      <c r="JK18">
+        <v>0</v>
+      </c>
+      <c r="JL18">
+        <v>0</v>
+      </c>
+      <c r="JM18">
+        <v>0</v>
+      </c>
+      <c r="JN18">
+        <v>0</v>
+      </c>
+      <c r="JO18">
+        <v>0</v>
+      </c>
+      <c r="JP18">
+        <v>200</v>
+      </c>
+      <c r="JQ18">
+        <v>100</v>
+      </c>
+      <c r="JR18">
+        <v>0</v>
+      </c>
+      <c r="JS18">
+        <v>0</v>
+      </c>
+      <c r="JT18">
+        <v>0</v>
+      </c>
+      <c r="JU18">
+        <v>0</v>
+      </c>
+      <c r="JV18">
+        <v>0</v>
+      </c>
+      <c r="JW18">
+        <v>0</v>
+      </c>
+      <c r="JX18">
+        <v>0</v>
+      </c>
+      <c r="JY18">
+        <v>100</v>
+      </c>
+      <c r="JZ18">
+        <v>0</v>
+      </c>
+      <c r="KA18">
+        <v>0</v>
+      </c>
+      <c r="KB18">
+        <v>0</v>
+      </c>
+      <c r="KC18">
+        <v>0</v>
+      </c>
+      <c r="KD18">
+        <v>0</v>
+      </c>
+      <c r="KE18">
+        <v>0</v>
+      </c>
+      <c r="KF18">
+        <v>200</v>
+      </c>
+      <c r="KG18">
+        <v>0</v>
+      </c>
+      <c r="KH18">
+        <v>0</v>
+      </c>
+      <c r="KI18">
+        <v>0</v>
+      </c>
+      <c r="KJ18">
+        <v>0</v>
+      </c>
+      <c r="KK18">
+        <v>0</v>
+      </c>
+      <c r="KL18">
+        <v>0</v>
+      </c>
+      <c r="KM18">
+        <v>0</v>
+      </c>
+      <c r="KN18">
+        <v>0</v>
+      </c>
+      <c r="KO18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:301" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>43451.620833333327</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>200</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>300</v>
+      </c>
+      <c r="L19">
+        <v>100</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>200</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19"/>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>100</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>100</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>200</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+      <c r="BI19">
+        <v>100</v>
+      </c>
+      <c r="BJ19">
+        <v>0</v>
+      </c>
+      <c r="BK19">
+        <v>0</v>
+      </c>
+      <c r="BL19">
+        <v>0</v>
+      </c>
+      <c r="BM19">
+        <v>0</v>
+      </c>
+      <c r="BN19">
+        <v>0</v>
+      </c>
+      <c r="BO19">
+        <v>0</v>
+      </c>
+      <c r="BP19">
+        <v>0</v>
+      </c>
+      <c r="BQ19">
+        <v>0</v>
+      </c>
+      <c r="BR19">
+        <v>0</v>
+      </c>
+      <c r="BS19">
+        <v>0</v>
+      </c>
+      <c r="BT19">
+        <v>0</v>
+      </c>
+      <c r="BU19">
+        <v>100</v>
+      </c>
+      <c r="BV19">
+        <v>0</v>
+      </c>
+      <c r="BW19">
+        <v>0</v>
+      </c>
+      <c r="BX19">
+        <v>0</v>
+      </c>
+      <c r="BY19">
+        <v>0</v>
+      </c>
+      <c r="BZ19">
+        <v>0</v>
+      </c>
+      <c r="CA19">
+        <v>0</v>
+      </c>
+      <c r="CB19">
+        <v>0</v>
+      </c>
+      <c r="CC19">
+        <v>0</v>
+      </c>
+      <c r="CD19">
+        <v>0</v>
+      </c>
+      <c r="CE19">
+        <v>0</v>
+      </c>
+      <c r="CF19">
+        <v>100</v>
+      </c>
+      <c r="CG19">
+        <v>0</v>
+      </c>
+      <c r="CH19">
+        <v>0</v>
+      </c>
+      <c r="CI19">
+        <v>0</v>
+      </c>
+      <c r="CJ19">
+        <v>0</v>
+      </c>
+      <c r="CK19">
+        <v>0</v>
+      </c>
+      <c r="CL19">
+        <v>0</v>
+      </c>
+      <c r="CM19">
+        <v>0</v>
+      </c>
+      <c r="CN19">
+        <v>100</v>
+      </c>
+      <c r="CO19">
+        <v>200</v>
+      </c>
+      <c r="CP19">
+        <v>0</v>
+      </c>
+      <c r="CQ19">
+        <v>0</v>
+      </c>
+      <c r="CR19">
+        <v>0</v>
+      </c>
+      <c r="CS19">
+        <v>0</v>
+      </c>
+      <c r="CT19">
+        <v>200</v>
+      </c>
+      <c r="CU19">
+        <v>0</v>
+      </c>
+      <c r="CV19">
+        <v>0</v>
+      </c>
+      <c r="CW19">
+        <v>0</v>
+      </c>
+      <c r="CX19">
+        <v>0</v>
+      </c>
+      <c r="CY19">
+        <v>0</v>
+      </c>
+      <c r="CZ19">
+        <v>0</v>
+      </c>
+      <c r="DA19">
+        <v>0</v>
+      </c>
+      <c r="DB19">
+        <v>0</v>
+      </c>
+      <c r="DC19">
+        <v>100</v>
+      </c>
+      <c r="DD19">
+        <v>0</v>
+      </c>
+      <c r="DE19">
+        <v>0</v>
+      </c>
+      <c r="DF19">
+        <v>0</v>
+      </c>
+      <c r="DG19">
+        <v>0</v>
+      </c>
+      <c r="DH19">
+        <v>0</v>
+      </c>
+      <c r="DI19">
+        <v>100</v>
+      </c>
+      <c r="DJ19">
+        <v>0</v>
+      </c>
+      <c r="DK19">
+        <v>0</v>
+      </c>
+      <c r="DL19">
+        <v>0</v>
+      </c>
+      <c r="DM19">
+        <v>400</v>
+      </c>
+      <c r="DN19">
+        <v>0</v>
+      </c>
+      <c r="DO19">
+        <v>100</v>
+      </c>
+      <c r="DP19">
+        <v>0</v>
+      </c>
+      <c r="DQ19">
+        <v>0</v>
+      </c>
+      <c r="DR19">
+        <v>0</v>
+      </c>
+      <c r="DS19">
+        <v>0</v>
+      </c>
+      <c r="DT19">
+        <v>0</v>
+      </c>
+      <c r="DU19">
+        <v>0</v>
+      </c>
+      <c r="DV19">
+        <v>300</v>
+      </c>
+      <c r="DW19">
+        <v>0</v>
+      </c>
+      <c r="DX19">
+        <v>0</v>
+      </c>
+      <c r="DY19">
+        <v>0</v>
+      </c>
+      <c r="DZ19">
+        <v>400</v>
+      </c>
+      <c r="EA19">
+        <v>0</v>
+      </c>
+      <c r="EB19">
+        <v>0</v>
+      </c>
+      <c r="EC19">
+        <v>0</v>
+      </c>
+      <c r="ED19">
+        <v>0</v>
+      </c>
+      <c r="EE19">
+        <v>0</v>
+      </c>
+      <c r="EF19">
+        <v>100</v>
+      </c>
+      <c r="EG19">
+        <v>100</v>
+      </c>
+      <c r="EH19">
+        <v>0</v>
+      </c>
+      <c r="EI19">
+        <v>0</v>
+      </c>
+      <c r="EJ19">
+        <v>0</v>
+      </c>
+      <c r="EK19">
+        <v>0</v>
+      </c>
+      <c r="EL19">
+        <v>0</v>
+      </c>
+      <c r="EM19">
+        <v>0</v>
+      </c>
+      <c r="EN19">
+        <v>0</v>
+      </c>
+      <c r="EO19">
+        <v>0</v>
+      </c>
+      <c r="EP19">
+        <v>0</v>
+      </c>
+      <c r="EQ19">
+        <v>0</v>
+      </c>
+      <c r="ER19">
+        <v>700</v>
+      </c>
+      <c r="ES19">
+        <v>100</v>
+      </c>
+      <c r="ET19">
+        <v>0</v>
+      </c>
+      <c r="EU19">
+        <v>0</v>
+      </c>
+      <c r="EV19">
+        <v>0</v>
+      </c>
+      <c r="EW19">
+        <v>0</v>
+      </c>
+      <c r="EX19">
+        <v>0</v>
+      </c>
+      <c r="EY19">
+        <v>0</v>
+      </c>
+      <c r="EZ19">
+        <v>0</v>
+      </c>
+      <c r="FA19">
+        <v>0</v>
+      </c>
+      <c r="FB19">
+        <v>0</v>
+      </c>
+      <c r="FC19">
+        <v>0</v>
+      </c>
+      <c r="FD19">
+        <v>0</v>
+      </c>
+      <c r="FE19">
+        <v>0</v>
+      </c>
+      <c r="FF19">
+        <v>0</v>
+      </c>
+      <c r="FG19">
+        <v>100</v>
+      </c>
+      <c r="FH19">
+        <v>0</v>
+      </c>
+      <c r="FI19">
+        <v>200</v>
+      </c>
+      <c r="FJ19">
+        <v>0</v>
+      </c>
+      <c r="FK19">
+        <v>0</v>
+      </c>
+      <c r="FL19">
+        <v>0</v>
+      </c>
+      <c r="FM19">
+        <v>0</v>
+      </c>
+      <c r="FN19">
+        <v>300</v>
+      </c>
+      <c r="FO19">
+        <v>200</v>
+      </c>
+      <c r="FP19">
+        <v>0</v>
+      </c>
+      <c r="FQ19">
+        <v>300</v>
+      </c>
+      <c r="FR19">
+        <v>100</v>
+      </c>
+      <c r="FS19">
+        <v>0</v>
+      </c>
+      <c r="FT19">
+        <v>0</v>
+      </c>
+      <c r="FU19">
+        <v>100</v>
+      </c>
+      <c r="FV19"/>
+      <c r="FW19">
+        <v>0</v>
+      </c>
+      <c r="FX19">
+        <v>100</v>
+      </c>
+      <c r="FY19">
+        <v>0</v>
+      </c>
+      <c r="FZ19">
+        <v>0</v>
+      </c>
+      <c r="GA19">
+        <v>0</v>
+      </c>
+      <c r="GB19">
+        <v>0</v>
+      </c>
+      <c r="GC19">
+        <v>100</v>
+      </c>
+      <c r="GD19">
+        <v>0</v>
+      </c>
+      <c r="GE19">
+        <v>100</v>
+      </c>
+      <c r="GF19">
+        <v>0</v>
+      </c>
+      <c r="GG19">
+        <v>0</v>
+      </c>
+      <c r="GH19">
+        <v>0</v>
+      </c>
+      <c r="GI19">
+        <v>0</v>
+      </c>
+      <c r="GJ19">
+        <v>0</v>
+      </c>
+      <c r="GK19">
+        <v>100</v>
+      </c>
+      <c r="GL19">
+        <v>0</v>
+      </c>
+      <c r="GM19">
+        <v>0</v>
+      </c>
+      <c r="GN19">
+        <v>0</v>
+      </c>
+      <c r="GO19">
+        <v>100</v>
+      </c>
+      <c r="GP19">
+        <v>0</v>
+      </c>
+      <c r="GQ19">
+        <v>400</v>
+      </c>
+      <c r="GR19">
+        <v>100</v>
+      </c>
+      <c r="GS19">
+        <v>0</v>
+      </c>
+      <c r="GT19">
+        <v>0</v>
+      </c>
+      <c r="GU19">
+        <v>0</v>
+      </c>
+      <c r="GV19">
+        <v>0</v>
+      </c>
+      <c r="GW19">
+        <v>100</v>
+      </c>
+      <c r="GX19">
+        <v>0</v>
+      </c>
+      <c r="GY19">
+        <v>0</v>
+      </c>
+      <c r="GZ19">
+        <v>100</v>
+      </c>
+      <c r="HA19">
+        <v>100</v>
+      </c>
+      <c r="HB19">
+        <v>300</v>
+      </c>
+      <c r="HC19">
+        <v>0</v>
+      </c>
+      <c r="HD19">
+        <v>0</v>
+      </c>
+      <c r="HE19">
+        <v>200</v>
+      </c>
+      <c r="HF19">
+        <v>0</v>
+      </c>
+      <c r="HG19">
+        <v>0</v>
+      </c>
+      <c r="HH19">
+        <v>100</v>
+      </c>
+      <c r="HI19">
+        <v>0</v>
+      </c>
+      <c r="HJ19">
+        <v>0</v>
+      </c>
+      <c r="HK19">
+        <v>0</v>
+      </c>
+      <c r="HL19">
+        <v>0</v>
+      </c>
+      <c r="HM19">
+        <v>0</v>
+      </c>
+      <c r="HN19">
+        <v>0</v>
+      </c>
+      <c r="HO19">
+        <v>0</v>
+      </c>
+      <c r="HP19">
+        <v>100</v>
+      </c>
+      <c r="HQ19">
+        <v>0</v>
+      </c>
+      <c r="HR19">
+        <v>0</v>
+      </c>
+      <c r="HS19">
+        <v>0</v>
+      </c>
+      <c r="HT19">
+        <v>0</v>
+      </c>
+      <c r="HU19">
+        <v>0</v>
+      </c>
+      <c r="HV19">
+        <v>0</v>
+      </c>
+      <c r="HW19">
+        <v>0</v>
+      </c>
+      <c r="HX19">
+        <v>0</v>
+      </c>
+      <c r="HY19">
+        <v>200</v>
+      </c>
+      <c r="HZ19">
+        <v>0</v>
+      </c>
+      <c r="IA19">
+        <v>0</v>
+      </c>
+      <c r="IB19">
+        <v>0</v>
+      </c>
+      <c r="IC19">
+        <v>200</v>
+      </c>
+      <c r="ID19">
+        <v>0</v>
+      </c>
+      <c r="IE19">
+        <v>100</v>
+      </c>
+      <c r="IF19">
+        <v>0</v>
+      </c>
+      <c r="IG19">
+        <v>0</v>
+      </c>
+      <c r="IH19">
+        <v>0</v>
+      </c>
+      <c r="II19">
+        <v>200</v>
+      </c>
+      <c r="IJ19">
+        <v>100</v>
+      </c>
+      <c r="IK19">
+        <v>0</v>
+      </c>
+      <c r="IL19">
+        <v>0</v>
+      </c>
+      <c r="IM19">
+        <v>0</v>
+      </c>
+      <c r="IN19">
+        <v>0</v>
+      </c>
+      <c r="IO19">
+        <v>0</v>
+      </c>
+      <c r="IP19">
+        <v>0</v>
+      </c>
+      <c r="IQ19">
+        <v>0</v>
+      </c>
+      <c r="IR19">
+        <v>0</v>
+      </c>
+      <c r="IS19">
+        <v>200</v>
+      </c>
+      <c r="IT19">
+        <v>0</v>
+      </c>
+      <c r="IU19">
+        <v>0</v>
+      </c>
+      <c r="IV19">
+        <v>0</v>
+      </c>
+      <c r="IW19">
+        <v>0</v>
+      </c>
+      <c r="IX19">
+        <v>0</v>
+      </c>
+      <c r="IY19">
+        <v>0</v>
+      </c>
+      <c r="IZ19">
+        <v>500</v>
+      </c>
+      <c r="JA19">
+        <v>0</v>
+      </c>
+      <c r="JB19">
+        <v>0</v>
+      </c>
+      <c r="JC19">
+        <v>600</v>
+      </c>
+      <c r="JD19">
+        <v>500</v>
+      </c>
+      <c r="JE19">
+        <v>0</v>
+      </c>
+      <c r="JF19">
+        <v>0</v>
+      </c>
+      <c r="JG19">
+        <v>0</v>
+      </c>
+      <c r="JH19">
+        <v>200</v>
+      </c>
+      <c r="JI19">
+        <v>0</v>
+      </c>
+      <c r="JJ19">
+        <v>200</v>
+      </c>
+      <c r="JK19">
+        <v>0</v>
+      </c>
+      <c r="JL19">
+        <v>0</v>
+      </c>
+      <c r="JM19">
+        <v>0</v>
+      </c>
+      <c r="JN19">
+        <v>0</v>
+      </c>
+      <c r="JO19">
+        <v>0</v>
+      </c>
+      <c r="JP19">
+        <v>200</v>
+      </c>
+      <c r="JQ19">
+        <v>0</v>
+      </c>
+      <c r="JR19">
+        <v>0</v>
+      </c>
+      <c r="JS19">
+        <v>0</v>
+      </c>
+      <c r="JT19">
+        <v>0</v>
+      </c>
+      <c r="JU19">
+        <v>0</v>
+      </c>
+      <c r="JV19">
+        <v>0</v>
+      </c>
+      <c r="JW19">
+        <v>0</v>
+      </c>
+      <c r="JX19">
+        <v>0</v>
+      </c>
+      <c r="JY19">
+        <v>100</v>
+      </c>
+      <c r="JZ19">
+        <v>0</v>
+      </c>
+      <c r="KA19">
+        <v>0</v>
+      </c>
+      <c r="KB19">
+        <v>0</v>
+      </c>
+      <c r="KC19">
+        <v>0</v>
+      </c>
+      <c r="KD19">
+        <v>0</v>
+      </c>
+      <c r="KE19">
+        <v>0</v>
+      </c>
+      <c r="KF19">
+        <v>500</v>
+      </c>
+      <c r="KG19">
+        <v>0</v>
+      </c>
+      <c r="KH19">
+        <v>0</v>
+      </c>
+      <c r="KI19">
+        <v>0</v>
+      </c>
+      <c r="KJ19">
+        <v>0</v>
+      </c>
+      <c r="KK19">
+        <v>0</v>
+      </c>
+      <c r="KL19">
+        <v>0</v>
+      </c>
+      <c r="KM19">
+        <v>0</v>
+      </c>
+      <c r="KN19">
+        <v>0</v>
+      </c>
+      <c r="KO19">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/IndexEnhancement/模拟盘PnL跟踪 - 100w.xlsx
+++ b/IndexEnhancement/模拟盘PnL跟踪 - 100w.xlsx
@@ -1310,10 +1310,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KO19"/>
+  <dimension ref="A1:KO21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AZ19" sqref="AZ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1328,8 +1328,8 @@
     <col min="74" max="146" width="9.125" style="1" bestFit="1" customWidth="1"/>
     <col min="147" max="147" width="9" style="1" customWidth="1"/>
     <col min="148" max="301" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="302" max="308" width="9" style="1" customWidth="1"/>
-    <col min="309" max="16384" width="9" style="1"/>
+    <col min="302" max="309" width="9" style="1" customWidth="1"/>
+    <col min="310" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:301" x14ac:dyDescent="0.2">
@@ -17473,8 +17473,8 @@
       </c>
     </row>
     <row r="19" spans="1:301" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>43451.620833333327</v>
+      <c r="A19" s="4">
+        <v>43451.62083333332</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -17527,7 +17527,6 @@
       <c r="R19">
         <v>0</v>
       </c>
-      <c r="S19"/>
       <c r="T19">
         <v>0</v>
       </c>
@@ -18002,7 +18001,6 @@
       <c r="FU19">
         <v>100</v>
       </c>
-      <c r="FV19"/>
       <c r="FW19">
         <v>0</v>
       </c>
@@ -18371,11 +18369,1811 @@
       </c>
       <c r="KO19">
         <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:301" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>43452.62083333332</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>100</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>300</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20">
+        <v>100</v>
+      </c>
+      <c r="BJ20">
+        <v>0</v>
+      </c>
+      <c r="BK20">
+        <v>0</v>
+      </c>
+      <c r="BL20">
+        <v>0</v>
+      </c>
+      <c r="BM20">
+        <v>0</v>
+      </c>
+      <c r="BN20">
+        <v>0</v>
+      </c>
+      <c r="BO20">
+        <v>0</v>
+      </c>
+      <c r="BP20">
+        <v>0</v>
+      </c>
+      <c r="BQ20">
+        <v>0</v>
+      </c>
+      <c r="BR20">
+        <v>0</v>
+      </c>
+      <c r="BS20">
+        <v>0</v>
+      </c>
+      <c r="BT20">
+        <v>0</v>
+      </c>
+      <c r="BU20">
+        <v>0</v>
+      </c>
+      <c r="BV20">
+        <v>0</v>
+      </c>
+      <c r="BW20">
+        <v>0</v>
+      </c>
+      <c r="BX20">
+        <v>0</v>
+      </c>
+      <c r="BY20">
+        <v>0</v>
+      </c>
+      <c r="BZ20">
+        <v>0</v>
+      </c>
+      <c r="CA20">
+        <v>0</v>
+      </c>
+      <c r="CB20">
+        <v>0</v>
+      </c>
+      <c r="CC20">
+        <v>0</v>
+      </c>
+      <c r="CD20">
+        <v>0</v>
+      </c>
+      <c r="CE20">
+        <v>0</v>
+      </c>
+      <c r="CF20">
+        <v>0</v>
+      </c>
+      <c r="CG20">
+        <v>0</v>
+      </c>
+      <c r="CH20">
+        <v>0</v>
+      </c>
+      <c r="CI20">
+        <v>0</v>
+      </c>
+      <c r="CJ20">
+        <v>0</v>
+      </c>
+      <c r="CK20">
+        <v>0</v>
+      </c>
+      <c r="CL20">
+        <v>0</v>
+      </c>
+      <c r="CM20">
+        <v>0</v>
+      </c>
+      <c r="CN20">
+        <v>0</v>
+      </c>
+      <c r="CO20">
+        <v>100</v>
+      </c>
+      <c r="CP20">
+        <v>0</v>
+      </c>
+      <c r="CQ20">
+        <v>100</v>
+      </c>
+      <c r="CR20">
+        <v>0</v>
+      </c>
+      <c r="CS20">
+        <v>0</v>
+      </c>
+      <c r="CT20">
+        <v>100</v>
+      </c>
+      <c r="CU20">
+        <v>0</v>
+      </c>
+      <c r="CV20">
+        <v>0</v>
+      </c>
+      <c r="CW20">
+        <v>0</v>
+      </c>
+      <c r="CX20">
+        <v>0</v>
+      </c>
+      <c r="CY20">
+        <v>0</v>
+      </c>
+      <c r="CZ20">
+        <v>0</v>
+      </c>
+      <c r="DA20">
+        <v>0</v>
+      </c>
+      <c r="DB20">
+        <v>0</v>
+      </c>
+      <c r="DC20">
+        <v>0</v>
+      </c>
+      <c r="DD20">
+        <v>0</v>
+      </c>
+      <c r="DE20">
+        <v>0</v>
+      </c>
+      <c r="DF20">
+        <v>0</v>
+      </c>
+      <c r="DG20">
+        <v>0</v>
+      </c>
+      <c r="DH20">
+        <v>0</v>
+      </c>
+      <c r="DI20">
+        <v>0</v>
+      </c>
+      <c r="DJ20">
+        <v>0</v>
+      </c>
+      <c r="DK20">
+        <v>0</v>
+      </c>
+      <c r="DL20">
+        <v>0</v>
+      </c>
+      <c r="DM20">
+        <v>0</v>
+      </c>
+      <c r="DN20">
+        <v>0</v>
+      </c>
+      <c r="DO20">
+        <v>0</v>
+      </c>
+      <c r="DP20">
+        <v>100</v>
+      </c>
+      <c r="DQ20">
+        <v>0</v>
+      </c>
+      <c r="DR20">
+        <v>0</v>
+      </c>
+      <c r="DS20">
+        <v>0</v>
+      </c>
+      <c r="DT20">
+        <v>0</v>
+      </c>
+      <c r="DU20">
+        <v>0</v>
+      </c>
+      <c r="DV20">
+        <v>300</v>
+      </c>
+      <c r="DW20">
+        <v>0</v>
+      </c>
+      <c r="DX20">
+        <v>0</v>
+      </c>
+      <c r="DY20">
+        <v>0</v>
+      </c>
+      <c r="DZ20">
+        <v>100</v>
+      </c>
+      <c r="EA20">
+        <v>0</v>
+      </c>
+      <c r="EB20">
+        <v>0</v>
+      </c>
+      <c r="EC20">
+        <v>0</v>
+      </c>
+      <c r="ED20">
+        <v>0</v>
+      </c>
+      <c r="EE20">
+        <v>0</v>
+      </c>
+      <c r="EF20">
+        <v>0</v>
+      </c>
+      <c r="EG20">
+        <v>0</v>
+      </c>
+      <c r="EH20">
+        <v>0</v>
+      </c>
+      <c r="EI20">
+        <v>0</v>
+      </c>
+      <c r="EJ20">
+        <v>100</v>
+      </c>
+      <c r="EK20">
+        <v>0</v>
+      </c>
+      <c r="EL20">
+        <v>0</v>
+      </c>
+      <c r="EM20">
+        <v>0</v>
+      </c>
+      <c r="EN20">
+        <v>0</v>
+      </c>
+      <c r="EO20">
+        <v>0</v>
+      </c>
+      <c r="EP20">
+        <v>0</v>
+      </c>
+      <c r="EQ20">
+        <v>0</v>
+      </c>
+      <c r="ER20">
+        <v>100</v>
+      </c>
+      <c r="ES20">
+        <v>0</v>
+      </c>
+      <c r="ET20">
+        <v>0</v>
+      </c>
+      <c r="EU20">
+        <v>0</v>
+      </c>
+      <c r="EV20">
+        <v>0</v>
+      </c>
+      <c r="EW20">
+        <v>0</v>
+      </c>
+      <c r="EX20">
+        <v>0</v>
+      </c>
+      <c r="EY20">
+        <v>0</v>
+      </c>
+      <c r="EZ20">
+        <v>0</v>
+      </c>
+      <c r="FA20">
+        <v>0</v>
+      </c>
+      <c r="FB20">
+        <v>0</v>
+      </c>
+      <c r="FC20">
+        <v>0</v>
+      </c>
+      <c r="FD20">
+        <v>0</v>
+      </c>
+      <c r="FE20">
+        <v>0</v>
+      </c>
+      <c r="FF20">
+        <v>0</v>
+      </c>
+      <c r="FG20">
+        <v>0</v>
+      </c>
+      <c r="FH20">
+        <v>0</v>
+      </c>
+      <c r="FI20">
+        <v>0</v>
+      </c>
+      <c r="FJ20">
+        <v>0</v>
+      </c>
+      <c r="FK20">
+        <v>0</v>
+      </c>
+      <c r="FL20">
+        <v>0</v>
+      </c>
+      <c r="FM20">
+        <v>100</v>
+      </c>
+      <c r="FN20">
+        <v>100</v>
+      </c>
+      <c r="FO20">
+        <v>100</v>
+      </c>
+      <c r="FP20">
+        <v>0</v>
+      </c>
+      <c r="FQ20">
+        <v>0</v>
+      </c>
+      <c r="FR20">
+        <v>100</v>
+      </c>
+      <c r="FS20">
+        <v>0</v>
+      </c>
+      <c r="FT20">
+        <v>0</v>
+      </c>
+      <c r="FU20">
+        <v>200</v>
+      </c>
+      <c r="FW20">
+        <v>0</v>
+      </c>
+      <c r="FX20">
+        <v>300</v>
+      </c>
+      <c r="FY20">
+        <v>0</v>
+      </c>
+      <c r="FZ20">
+        <v>0</v>
+      </c>
+      <c r="GA20">
+        <v>0</v>
+      </c>
+      <c r="GB20">
+        <v>0</v>
+      </c>
+      <c r="GC20">
+        <v>0</v>
+      </c>
+      <c r="GD20">
+        <v>0</v>
+      </c>
+      <c r="GE20">
+        <v>100</v>
+      </c>
+      <c r="GF20">
+        <v>0</v>
+      </c>
+      <c r="GG20">
+        <v>0</v>
+      </c>
+      <c r="GH20">
+        <v>0</v>
+      </c>
+      <c r="GI20">
+        <v>0</v>
+      </c>
+      <c r="GJ20">
+        <v>0</v>
+      </c>
+      <c r="GK20">
+        <v>0</v>
+      </c>
+      <c r="GL20">
+        <v>0</v>
+      </c>
+      <c r="GM20">
+        <v>0</v>
+      </c>
+      <c r="GN20">
+        <v>0</v>
+      </c>
+      <c r="GO20">
+        <v>100</v>
+      </c>
+      <c r="GP20">
+        <v>0</v>
+      </c>
+      <c r="GQ20">
+        <v>0</v>
+      </c>
+      <c r="GR20">
+        <v>0</v>
+      </c>
+      <c r="GS20">
+        <v>0</v>
+      </c>
+      <c r="GT20">
+        <v>0</v>
+      </c>
+      <c r="GU20">
+        <v>0</v>
+      </c>
+      <c r="GV20">
+        <v>0</v>
+      </c>
+      <c r="GW20">
+        <v>0</v>
+      </c>
+      <c r="GX20">
+        <v>0</v>
+      </c>
+      <c r="GY20">
+        <v>0</v>
+      </c>
+      <c r="GZ20">
+        <v>0</v>
+      </c>
+      <c r="HA20">
+        <v>0</v>
+      </c>
+      <c r="HB20">
+        <v>100</v>
+      </c>
+      <c r="HC20">
+        <v>0</v>
+      </c>
+      <c r="HD20">
+        <v>0</v>
+      </c>
+      <c r="HE20">
+        <v>200</v>
+      </c>
+      <c r="HF20">
+        <v>0</v>
+      </c>
+      <c r="HG20">
+        <v>0</v>
+      </c>
+      <c r="HH20">
+        <v>0</v>
+      </c>
+      <c r="HI20">
+        <v>0</v>
+      </c>
+      <c r="HJ20">
+        <v>0</v>
+      </c>
+      <c r="HK20">
+        <v>0</v>
+      </c>
+      <c r="HL20">
+        <v>0</v>
+      </c>
+      <c r="HM20">
+        <v>0</v>
+      </c>
+      <c r="HN20">
+        <v>100</v>
+      </c>
+      <c r="HO20">
+        <v>0</v>
+      </c>
+      <c r="HP20">
+        <v>0</v>
+      </c>
+      <c r="HQ20">
+        <v>0</v>
+      </c>
+      <c r="HR20">
+        <v>100</v>
+      </c>
+      <c r="HS20">
+        <v>0</v>
+      </c>
+      <c r="HT20">
+        <v>0</v>
+      </c>
+      <c r="HU20">
+        <v>0</v>
+      </c>
+      <c r="HV20">
+        <v>0</v>
+      </c>
+      <c r="HW20">
+        <v>0</v>
+      </c>
+      <c r="HX20">
+        <v>0</v>
+      </c>
+      <c r="HY20">
+        <v>0</v>
+      </c>
+      <c r="HZ20">
+        <v>0</v>
+      </c>
+      <c r="IA20">
+        <v>0</v>
+      </c>
+      <c r="IB20">
+        <v>0</v>
+      </c>
+      <c r="IC20">
+        <v>100</v>
+      </c>
+      <c r="ID20">
+        <v>0</v>
+      </c>
+      <c r="IE20">
+        <v>0</v>
+      </c>
+      <c r="IF20">
+        <v>0</v>
+      </c>
+      <c r="IG20">
+        <v>0</v>
+      </c>
+      <c r="IH20">
+        <v>0</v>
+      </c>
+      <c r="II20">
+        <v>0</v>
+      </c>
+      <c r="IJ20">
+        <v>100</v>
+      </c>
+      <c r="IK20">
+        <v>0</v>
+      </c>
+      <c r="IL20">
+        <v>0</v>
+      </c>
+      <c r="IM20">
+        <v>0</v>
+      </c>
+      <c r="IN20">
+        <v>0</v>
+      </c>
+      <c r="IO20">
+        <v>0</v>
+      </c>
+      <c r="IP20">
+        <v>0</v>
+      </c>
+      <c r="IQ20">
+        <v>0</v>
+      </c>
+      <c r="IR20">
+        <v>0</v>
+      </c>
+      <c r="IS20">
+        <v>0</v>
+      </c>
+      <c r="IT20">
+        <v>0</v>
+      </c>
+      <c r="IU20">
+        <v>0</v>
+      </c>
+      <c r="IV20">
+        <v>0</v>
+      </c>
+      <c r="IW20">
+        <v>0</v>
+      </c>
+      <c r="IX20">
+        <v>0</v>
+      </c>
+      <c r="IY20">
+        <v>0</v>
+      </c>
+      <c r="IZ20">
+        <v>0</v>
+      </c>
+      <c r="JA20">
+        <v>0</v>
+      </c>
+      <c r="JB20">
+        <v>0</v>
+      </c>
+      <c r="JC20">
+        <v>500</v>
+      </c>
+      <c r="JD20">
+        <v>0</v>
+      </c>
+      <c r="JE20">
+        <v>0</v>
+      </c>
+      <c r="JF20">
+        <v>0</v>
+      </c>
+      <c r="JG20">
+        <v>0</v>
+      </c>
+      <c r="JH20">
+        <v>200</v>
+      </c>
+      <c r="JI20">
+        <v>0</v>
+      </c>
+      <c r="JJ20">
+        <v>0</v>
+      </c>
+      <c r="JK20">
+        <v>0</v>
+      </c>
+      <c r="JL20">
+        <v>0</v>
+      </c>
+      <c r="JM20">
+        <v>0</v>
+      </c>
+      <c r="JN20">
+        <v>0</v>
+      </c>
+      <c r="JO20">
+        <v>0</v>
+      </c>
+      <c r="JP20">
+        <v>0</v>
+      </c>
+      <c r="JQ20">
+        <v>0</v>
+      </c>
+      <c r="JR20">
+        <v>0</v>
+      </c>
+      <c r="JS20">
+        <v>0</v>
+      </c>
+      <c r="JT20">
+        <v>0</v>
+      </c>
+      <c r="JU20">
+        <v>0</v>
+      </c>
+      <c r="JV20">
+        <v>0</v>
+      </c>
+      <c r="JW20">
+        <v>0</v>
+      </c>
+      <c r="JX20">
+        <v>0</v>
+      </c>
+      <c r="JY20">
+        <v>0</v>
+      </c>
+      <c r="JZ20">
+        <v>0</v>
+      </c>
+      <c r="KA20">
+        <v>0</v>
+      </c>
+      <c r="KB20">
+        <v>0</v>
+      </c>
+      <c r="KC20">
+        <v>0</v>
+      </c>
+      <c r="KD20">
+        <v>0</v>
+      </c>
+      <c r="KE20">
+        <v>0</v>
+      </c>
+      <c r="KF20">
+        <v>200</v>
+      </c>
+      <c r="KG20">
+        <v>0</v>
+      </c>
+      <c r="KH20">
+        <v>0</v>
+      </c>
+      <c r="KI20">
+        <v>0</v>
+      </c>
+      <c r="KJ20">
+        <v>0</v>
+      </c>
+      <c r="KK20">
+        <v>0</v>
+      </c>
+      <c r="KL20">
+        <v>0</v>
+      </c>
+      <c r="KM20">
+        <v>0</v>
+      </c>
+      <c r="KN20">
+        <v>0</v>
+      </c>
+      <c r="KO20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:301" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>43453.620833333327</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>100</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21"/>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>200</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>0</v>
+      </c>
+      <c r="BH21">
+        <v>0</v>
+      </c>
+      <c r="BI21">
+        <v>100</v>
+      </c>
+      <c r="BJ21">
+        <v>0</v>
+      </c>
+      <c r="BK21">
+        <v>0</v>
+      </c>
+      <c r="BL21">
+        <v>0</v>
+      </c>
+      <c r="BM21">
+        <v>0</v>
+      </c>
+      <c r="BN21">
+        <v>0</v>
+      </c>
+      <c r="BO21">
+        <v>0</v>
+      </c>
+      <c r="BP21">
+        <v>0</v>
+      </c>
+      <c r="BQ21">
+        <v>0</v>
+      </c>
+      <c r="BR21">
+        <v>0</v>
+      </c>
+      <c r="BS21">
+        <v>0</v>
+      </c>
+      <c r="BT21">
+        <v>0</v>
+      </c>
+      <c r="BU21">
+        <v>0</v>
+      </c>
+      <c r="BV21">
+        <v>0</v>
+      </c>
+      <c r="BW21">
+        <v>0</v>
+      </c>
+      <c r="BX21">
+        <v>0</v>
+      </c>
+      <c r="BY21">
+        <v>0</v>
+      </c>
+      <c r="BZ21">
+        <v>0</v>
+      </c>
+      <c r="CA21">
+        <v>0</v>
+      </c>
+      <c r="CB21">
+        <v>0</v>
+      </c>
+      <c r="CC21">
+        <v>0</v>
+      </c>
+      <c r="CD21">
+        <v>0</v>
+      </c>
+      <c r="CE21">
+        <v>0</v>
+      </c>
+      <c r="CF21">
+        <v>0</v>
+      </c>
+      <c r="CG21">
+        <v>0</v>
+      </c>
+      <c r="CH21">
+        <v>0</v>
+      </c>
+      <c r="CI21">
+        <v>0</v>
+      </c>
+      <c r="CJ21">
+        <v>0</v>
+      </c>
+      <c r="CK21">
+        <v>0</v>
+      </c>
+      <c r="CL21">
+        <v>0</v>
+      </c>
+      <c r="CM21">
+        <v>0</v>
+      </c>
+      <c r="CN21">
+        <v>0</v>
+      </c>
+      <c r="CO21">
+        <v>100</v>
+      </c>
+      <c r="CP21">
+        <v>0</v>
+      </c>
+      <c r="CQ21">
+        <v>0</v>
+      </c>
+      <c r="CR21">
+        <v>0</v>
+      </c>
+      <c r="CS21">
+        <v>0</v>
+      </c>
+      <c r="CT21">
+        <v>100</v>
+      </c>
+      <c r="CU21">
+        <v>0</v>
+      </c>
+      <c r="CV21">
+        <v>0</v>
+      </c>
+      <c r="CW21">
+        <v>0</v>
+      </c>
+      <c r="CX21">
+        <v>0</v>
+      </c>
+      <c r="CY21">
+        <v>0</v>
+      </c>
+      <c r="CZ21">
+        <v>0</v>
+      </c>
+      <c r="DA21">
+        <v>0</v>
+      </c>
+      <c r="DB21">
+        <v>0</v>
+      </c>
+      <c r="DC21">
+        <v>0</v>
+      </c>
+      <c r="DD21">
+        <v>0</v>
+      </c>
+      <c r="DE21">
+        <v>0</v>
+      </c>
+      <c r="DF21">
+        <v>0</v>
+      </c>
+      <c r="DG21">
+        <v>0</v>
+      </c>
+      <c r="DH21">
+        <v>0</v>
+      </c>
+      <c r="DI21">
+        <v>0</v>
+      </c>
+      <c r="DJ21">
+        <v>0</v>
+      </c>
+      <c r="DK21">
+        <v>0</v>
+      </c>
+      <c r="DL21">
+        <v>0</v>
+      </c>
+      <c r="DM21">
+        <v>0</v>
+      </c>
+      <c r="DN21">
+        <v>0</v>
+      </c>
+      <c r="DO21">
+        <v>0</v>
+      </c>
+      <c r="DP21">
+        <v>100</v>
+      </c>
+      <c r="DQ21">
+        <v>0</v>
+      </c>
+      <c r="DR21">
+        <v>0</v>
+      </c>
+      <c r="DS21">
+        <v>0</v>
+      </c>
+      <c r="DT21">
+        <v>0</v>
+      </c>
+      <c r="DU21">
+        <v>0</v>
+      </c>
+      <c r="DV21">
+        <v>400</v>
+      </c>
+      <c r="DW21">
+        <v>0</v>
+      </c>
+      <c r="DX21">
+        <v>100</v>
+      </c>
+      <c r="DY21">
+        <v>0</v>
+      </c>
+      <c r="DZ21">
+        <v>100</v>
+      </c>
+      <c r="EA21">
+        <v>0</v>
+      </c>
+      <c r="EB21">
+        <v>0</v>
+      </c>
+      <c r="EC21">
+        <v>0</v>
+      </c>
+      <c r="ED21">
+        <v>0</v>
+      </c>
+      <c r="EE21">
+        <v>0</v>
+      </c>
+      <c r="EF21">
+        <v>0</v>
+      </c>
+      <c r="EG21">
+        <v>0</v>
+      </c>
+      <c r="EH21">
+        <v>0</v>
+      </c>
+      <c r="EI21">
+        <v>0</v>
+      </c>
+      <c r="EJ21">
+        <v>0</v>
+      </c>
+      <c r="EK21">
+        <v>0</v>
+      </c>
+      <c r="EL21">
+        <v>0</v>
+      </c>
+      <c r="EM21">
+        <v>0</v>
+      </c>
+      <c r="EN21">
+        <v>0</v>
+      </c>
+      <c r="EO21">
+        <v>0</v>
+      </c>
+      <c r="EP21">
+        <v>0</v>
+      </c>
+      <c r="EQ21">
+        <v>0</v>
+      </c>
+      <c r="ER21">
+        <v>100</v>
+      </c>
+      <c r="ES21">
+        <v>0</v>
+      </c>
+      <c r="ET21">
+        <v>0</v>
+      </c>
+      <c r="EU21">
+        <v>0</v>
+      </c>
+      <c r="EV21">
+        <v>0</v>
+      </c>
+      <c r="EW21">
+        <v>0</v>
+      </c>
+      <c r="EX21">
+        <v>0</v>
+      </c>
+      <c r="EY21">
+        <v>0</v>
+      </c>
+      <c r="EZ21">
+        <v>0</v>
+      </c>
+      <c r="FA21">
+        <v>0</v>
+      </c>
+      <c r="FB21">
+        <v>0</v>
+      </c>
+      <c r="FC21">
+        <v>0</v>
+      </c>
+      <c r="FD21">
+        <v>0</v>
+      </c>
+      <c r="FE21">
+        <v>0</v>
+      </c>
+      <c r="FF21">
+        <v>0</v>
+      </c>
+      <c r="FG21">
+        <v>0</v>
+      </c>
+      <c r="FH21">
+        <v>0</v>
+      </c>
+      <c r="FI21">
+        <v>0</v>
+      </c>
+      <c r="FJ21">
+        <v>0</v>
+      </c>
+      <c r="FK21">
+        <v>0</v>
+      </c>
+      <c r="FL21">
+        <v>0</v>
+      </c>
+      <c r="FM21">
+        <v>0</v>
+      </c>
+      <c r="FN21">
+        <v>100</v>
+      </c>
+      <c r="FO21">
+        <v>100</v>
+      </c>
+      <c r="FP21">
+        <v>0</v>
+      </c>
+      <c r="FQ21">
+        <v>0</v>
+      </c>
+      <c r="FR21">
+        <v>100</v>
+      </c>
+      <c r="FS21">
+        <v>0</v>
+      </c>
+      <c r="FT21">
+        <v>0</v>
+      </c>
+      <c r="FU21">
+        <v>100</v>
+      </c>
+      <c r="FV21"/>
+      <c r="FW21">
+        <v>0</v>
+      </c>
+      <c r="FX21">
+        <v>200</v>
+      </c>
+      <c r="FY21">
+        <v>0</v>
+      </c>
+      <c r="FZ21">
+        <v>0</v>
+      </c>
+      <c r="GA21">
+        <v>0</v>
+      </c>
+      <c r="GB21">
+        <v>0</v>
+      </c>
+      <c r="GC21">
+        <v>0</v>
+      </c>
+      <c r="GD21">
+        <v>0</v>
+      </c>
+      <c r="GE21">
+        <v>100</v>
+      </c>
+      <c r="GF21">
+        <v>0</v>
+      </c>
+      <c r="GG21">
+        <v>0</v>
+      </c>
+      <c r="GH21">
+        <v>0</v>
+      </c>
+      <c r="GI21">
+        <v>0</v>
+      </c>
+      <c r="GJ21">
+        <v>0</v>
+      </c>
+      <c r="GK21">
+        <v>0</v>
+      </c>
+      <c r="GL21">
+        <v>0</v>
+      </c>
+      <c r="GM21">
+        <v>0</v>
+      </c>
+      <c r="GN21">
+        <v>0</v>
+      </c>
+      <c r="GO21">
+        <v>100</v>
+      </c>
+      <c r="GP21">
+        <v>0</v>
+      </c>
+      <c r="GQ21">
+        <v>0</v>
+      </c>
+      <c r="GR21">
+        <v>0</v>
+      </c>
+      <c r="GS21">
+        <v>0</v>
+      </c>
+      <c r="GT21">
+        <v>0</v>
+      </c>
+      <c r="GU21">
+        <v>0</v>
+      </c>
+      <c r="GV21">
+        <v>0</v>
+      </c>
+      <c r="GW21">
+        <v>0</v>
+      </c>
+      <c r="GX21">
+        <v>0</v>
+      </c>
+      <c r="GY21">
+        <v>0</v>
+      </c>
+      <c r="GZ21">
+        <v>0</v>
+      </c>
+      <c r="HA21">
+        <v>0</v>
+      </c>
+      <c r="HB21">
+        <v>0</v>
+      </c>
+      <c r="HC21">
+        <v>0</v>
+      </c>
+      <c r="HD21">
+        <v>0</v>
+      </c>
+      <c r="HE21">
+        <v>200</v>
+      </c>
+      <c r="HF21">
+        <v>0</v>
+      </c>
+      <c r="HG21">
+        <v>0</v>
+      </c>
+      <c r="HH21">
+        <v>0</v>
+      </c>
+      <c r="HI21">
+        <v>0</v>
+      </c>
+      <c r="HJ21">
+        <v>0</v>
+      </c>
+      <c r="HK21">
+        <v>0</v>
+      </c>
+      <c r="HL21">
+        <v>0</v>
+      </c>
+      <c r="HM21">
+        <v>0</v>
+      </c>
+      <c r="HN21">
+        <v>0</v>
+      </c>
+      <c r="HO21">
+        <v>0</v>
+      </c>
+      <c r="HP21">
+        <v>0</v>
+      </c>
+      <c r="HQ21">
+        <v>0</v>
+      </c>
+      <c r="HR21">
+        <v>100</v>
+      </c>
+      <c r="HS21">
+        <v>0</v>
+      </c>
+      <c r="HT21">
+        <v>0</v>
+      </c>
+      <c r="HU21">
+        <v>0</v>
+      </c>
+      <c r="HV21">
+        <v>0</v>
+      </c>
+      <c r="HW21">
+        <v>0</v>
+      </c>
+      <c r="HX21">
+        <v>0</v>
+      </c>
+      <c r="HY21">
+        <v>0</v>
+      </c>
+      <c r="HZ21">
+        <v>0</v>
+      </c>
+      <c r="IA21">
+        <v>0</v>
+      </c>
+      <c r="IB21">
+        <v>0</v>
+      </c>
+      <c r="IC21">
+        <v>100</v>
+      </c>
+      <c r="ID21">
+        <v>0</v>
+      </c>
+      <c r="IE21">
+        <v>0</v>
+      </c>
+      <c r="IF21">
+        <v>0</v>
+      </c>
+      <c r="IG21">
+        <v>0</v>
+      </c>
+      <c r="IH21">
+        <v>0</v>
+      </c>
+      <c r="II21">
+        <v>0</v>
+      </c>
+      <c r="IJ21">
+        <v>0</v>
+      </c>
+      <c r="IK21">
+        <v>0</v>
+      </c>
+      <c r="IL21">
+        <v>0</v>
+      </c>
+      <c r="IM21">
+        <v>0</v>
+      </c>
+      <c r="IN21">
+        <v>0</v>
+      </c>
+      <c r="IO21">
+        <v>0</v>
+      </c>
+      <c r="IP21">
+        <v>0</v>
+      </c>
+      <c r="IQ21">
+        <v>0</v>
+      </c>
+      <c r="IR21">
+        <v>0</v>
+      </c>
+      <c r="IS21">
+        <v>0</v>
+      </c>
+      <c r="IT21">
+        <v>0</v>
+      </c>
+      <c r="IU21">
+        <v>0</v>
+      </c>
+      <c r="IV21">
+        <v>0</v>
+      </c>
+      <c r="IW21">
+        <v>0</v>
+      </c>
+      <c r="IX21">
+        <v>0</v>
+      </c>
+      <c r="IY21">
+        <v>0</v>
+      </c>
+      <c r="IZ21">
+        <v>0</v>
+      </c>
+      <c r="JA21">
+        <v>0</v>
+      </c>
+      <c r="JB21">
+        <v>0</v>
+      </c>
+      <c r="JC21">
+        <v>400</v>
+      </c>
+      <c r="JD21">
+        <v>0</v>
+      </c>
+      <c r="JE21">
+        <v>0</v>
+      </c>
+      <c r="JF21">
+        <v>0</v>
+      </c>
+      <c r="JG21">
+        <v>0</v>
+      </c>
+      <c r="JH21">
+        <v>200</v>
+      </c>
+      <c r="JI21">
+        <v>0</v>
+      </c>
+      <c r="JJ21">
+        <v>0</v>
+      </c>
+      <c r="JK21">
+        <v>0</v>
+      </c>
+      <c r="JL21">
+        <v>0</v>
+      </c>
+      <c r="JM21">
+        <v>0</v>
+      </c>
+      <c r="JN21">
+        <v>0</v>
+      </c>
+      <c r="JO21">
+        <v>0</v>
+      </c>
+      <c r="JP21">
+        <v>0</v>
+      </c>
+      <c r="JQ21">
+        <v>0</v>
+      </c>
+      <c r="JR21">
+        <v>0</v>
+      </c>
+      <c r="JS21">
+        <v>0</v>
+      </c>
+      <c r="JT21">
+        <v>0</v>
+      </c>
+      <c r="JU21">
+        <v>0</v>
+      </c>
+      <c r="JV21">
+        <v>0</v>
+      </c>
+      <c r="JW21">
+        <v>0</v>
+      </c>
+      <c r="JX21">
+        <v>0</v>
+      </c>
+      <c r="JY21">
+        <v>0</v>
+      </c>
+      <c r="JZ21">
+        <v>0</v>
+      </c>
+      <c r="KA21">
+        <v>0</v>
+      </c>
+      <c r="KB21">
+        <v>0</v>
+      </c>
+      <c r="KC21">
+        <v>0</v>
+      </c>
+      <c r="KD21">
+        <v>0</v>
+      </c>
+      <c r="KE21">
+        <v>0</v>
+      </c>
+      <c r="KF21">
+        <v>100</v>
+      </c>
+      <c r="KG21">
+        <v>0</v>
+      </c>
+      <c r="KH21">
+        <v>0</v>
+      </c>
+      <c r="KI21">
+        <v>0</v>
+      </c>
+      <c r="KJ21">
+        <v>0</v>
+      </c>
+      <c r="KK21">
+        <v>0</v>
+      </c>
+      <c r="KL21">
+        <v>0</v>
+      </c>
+      <c r="KM21">
+        <v>0</v>
+      </c>
+      <c r="KN21">
+        <v>0</v>
+      </c>
+      <c r="KO21">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/IndexEnhancement/模拟盘PnL跟踪 - 100w.xlsx
+++ b/IndexEnhancement/模拟盘PnL跟踪 - 100w.xlsx
@@ -1306,7 +1306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KO23"/>
+  <dimension ref="A1:KO26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
       <selection activeCell="AZ19" sqref="AZ19"/>
@@ -21066,7 +21066,7 @@
     </row>
     <row r="23" spans="1:301">
       <c r="A23" s="8" t="n">
-        <v>43455.62083333333</v>
+        <v>43455.62083333332</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -21118,9 +21118,6 @@
       </c>
       <c r="R23" t="n">
         <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v/>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -21596,376 +21593,3073 @@
       <c r="FU23" t="n">
         <v>100</v>
       </c>
-      <c r="FV23" t="n">
+      <c r="FW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX23" t="n">
+        <v>200</v>
+      </c>
+      <c r="FY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE23" t="n">
+        <v>100</v>
+      </c>
+      <c r="GF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO23" t="n">
+        <v>100</v>
+      </c>
+      <c r="GP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE23" t="n">
+        <v>200</v>
+      </c>
+      <c r="HF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN23" t="n">
+        <v>100</v>
+      </c>
+      <c r="HO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR23" t="n">
+        <v>100</v>
+      </c>
+      <c r="HS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="II23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU23" t="n">
+        <v>100</v>
+      </c>
+      <c r="IV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC23" t="n">
+        <v>100</v>
+      </c>
+      <c r="JD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH23" t="n">
+        <v>100</v>
+      </c>
+      <c r="JI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:301">
+      <c r="A24" s="8" t="n">
+        <v>43458.62083333332</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>300</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO24" t="n">
+        <v>100</v>
+      </c>
+      <c r="CP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ24" t="n">
+        <v>100</v>
+      </c>
+      <c r="CR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT24" t="n">
+        <v>100</v>
+      </c>
+      <c r="CU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP24" t="n">
+        <v>100</v>
+      </c>
+      <c r="DQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV24" t="n">
+        <v>200</v>
+      </c>
+      <c r="DW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ24" t="n">
+        <v>100</v>
+      </c>
+      <c r="EA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER24" t="n">
+        <v>100</v>
+      </c>
+      <c r="ES24" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM24" t="n">
+        <v>100</v>
+      </c>
+      <c r="FN24" t="n">
+        <v>100</v>
+      </c>
+      <c r="FO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR24" t="n">
+        <v>100</v>
+      </c>
+      <c r="FS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU24" t="n">
+        <v>200</v>
+      </c>
+      <c r="FW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX24" t="n">
+        <v>200</v>
+      </c>
+      <c r="FY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE24" t="n">
+        <v>100</v>
+      </c>
+      <c r="GF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO24" t="n">
+        <v>100</v>
+      </c>
+      <c r="GP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB24" t="n">
+        <v>100</v>
+      </c>
+      <c r="HC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE24" t="n">
+        <v>200</v>
+      </c>
+      <c r="HF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN24" t="n">
+        <v>100</v>
+      </c>
+      <c r="HO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR24" t="n">
+        <v>100</v>
+      </c>
+      <c r="HS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="II24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC24" t="n">
+        <v>100</v>
+      </c>
+      <c r="JD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH24" t="n">
+        <v>100</v>
+      </c>
+      <c r="JI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:301">
+      <c r="A25" s="8" t="n">
+        <v>43459.62083333332</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>200</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO25" t="n">
+        <v>100</v>
+      </c>
+      <c r="CP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP25" t="n">
+        <v>100</v>
+      </c>
+      <c r="DQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV25" t="n">
+        <v>200</v>
+      </c>
+      <c r="DW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER25" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES25" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM25" t="n">
+        <v>100</v>
+      </c>
+      <c r="FN25" t="n">
+        <v>100</v>
+      </c>
+      <c r="FO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU25" t="n">
+        <v>100</v>
+      </c>
+      <c r="FW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX25" t="n">
+        <v>200</v>
+      </c>
+      <c r="FY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE25" t="n">
+        <v>100</v>
+      </c>
+      <c r="GF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE25" t="n">
+        <v>200</v>
+      </c>
+      <c r="HF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN25" t="n">
+        <v>100</v>
+      </c>
+      <c r="HO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR25" t="n">
+        <v>100</v>
+      </c>
+      <c r="HS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="II25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH25" t="n">
+        <v>100</v>
+      </c>
+      <c r="JI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY25" t="n">
+        <v>100</v>
+      </c>
+      <c r="JZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:301">
+      <c r="A26" s="8" t="n">
+        <v>43460.62083333333</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
         <v/>
       </c>
-      <c r="FW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX23" t="n">
-        <v>200</v>
-      </c>
-      <c r="FY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE23" t="n">
-        <v>100</v>
-      </c>
-      <c r="GF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO23" t="n">
-        <v>100</v>
-      </c>
-      <c r="GP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE23" t="n">
-        <v>200</v>
-      </c>
-      <c r="HF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN23" t="n">
-        <v>100</v>
-      </c>
-      <c r="HO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR23" t="n">
-        <v>100</v>
-      </c>
-      <c r="HS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="II23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IR23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IU23" t="n">
-        <v>100</v>
-      </c>
-      <c r="IV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC23" t="n">
-        <v>100</v>
-      </c>
-      <c r="JD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH23" t="n">
-        <v>100</v>
-      </c>
-      <c r="JI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JR23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KO23" t="n">
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>200</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO26" t="n">
+        <v>100</v>
+      </c>
+      <c r="CP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP26" t="n">
+        <v>100</v>
+      </c>
+      <c r="DQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV26" t="n">
+        <v>200</v>
+      </c>
+      <c r="DW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY26" t="n">
+        <v/>
+      </c>
+      <c r="DZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER26" t="n">
+        <v>100</v>
+      </c>
+      <c r="ES26" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM26" t="n">
+        <v>100</v>
+      </c>
+      <c r="FN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR26" t="n">
+        <v>100</v>
+      </c>
+      <c r="FS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU26" t="n">
+        <v>100</v>
+      </c>
+      <c r="FV26" t="n">
+        <v/>
+      </c>
+      <c r="FW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX26" t="n">
+        <v>200</v>
+      </c>
+      <c r="FY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE26" t="n">
+        <v>100</v>
+      </c>
+      <c r="GF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO26" t="n">
+        <v>100</v>
+      </c>
+      <c r="GP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE26" t="n">
+        <v>200</v>
+      </c>
+      <c r="HF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN26" t="n">
+        <v>100</v>
+      </c>
+      <c r="HO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR26" t="n">
+        <v>100</v>
+      </c>
+      <c r="HS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="II26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH26" t="n">
+        <v>100</v>
+      </c>
+      <c r="JI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY26" t="n">
+        <v>100</v>
+      </c>
+      <c r="JZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC26" t="n">
+        <v>100</v>
+      </c>
+      <c r="KD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO26" t="n">
         <v>0</v>
       </c>
     </row>
